--- a/assets/xlsx/bosch.xlsx
+++ b/assets/xlsx/bosch.xlsx
@@ -1,19 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Arj\FAMILY\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391448B0-63F0-4A64-87C5-6C80B251F333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="DATABASE" sheetId="1" r:id="rId4"/>
-    <sheet state="hidden" name="HiddenStyle" sheetId="2" r:id="rId5"/>
-    <sheet state="hidden" name="HiddenAttr" sheetId="3" r:id="rId6"/>
+    <sheet name="DATABASE" sheetId="1" r:id="rId1"/>
+    <sheet name="HiddenStyle" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="HiddenAttr" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="903">
   <si>
     <t>product_id</t>
   </si>
@@ -3170,64 +3179,75 @@
   <si>
     <t>6 Month</t>
   </si>
+  <si>
+    <t>weight (kg)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="SimSun"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="SimSun"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -3247,9 +3267,21 @@
         <bgColor rgb="FFD3D3D3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -3263,124 +3295,107 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="3" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="3" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="10">
     <dxf>
       <font>
-        <sz val="11.0"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Times New Roman"/>
       </font>
@@ -3391,13 +3406,11 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center"/>
-      <border/>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <sz val="11.0"/>
-        <color rgb="FFFF0000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <name val="Times New Roman"/>
       </font>
       <fill>
@@ -3406,12 +3419,25 @@
           <bgColor rgb="FFD3D3D3"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center"/>
-      <border/>
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Times New Roman"/>
       </font>
@@ -3439,7 +3465,7 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="11.0"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Times New Roman"/>
       </font>
@@ -3449,40 +3475,108 @@
           <bgColor rgb="FFD3D3D3"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
+      <alignment horizontal="left" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD3D3D3"/>
+          <bgColor rgb="FFD3D3D3"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Times New Roman"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD3D3D3"/>
+          <bgColor rgb="FFD3D3D3"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD3D3D3"/>
+          <bgColor rgb="FFD3D3D3"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD3D3D3"/>
+          <bgColor rgb="FFD3D3D3"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD3D3D3"/>
+          <bgColor rgb="FFD3D3D3"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD3D3D3"/>
+          <bgColor rgb="FFD3D3D3"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center"/>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -3672,33 +3766,37 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AO196"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="A82" sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="26.25"/>
-    <col customWidth="1" min="2" max="2" width="36.5"/>
-    <col customWidth="1" min="3" max="4" width="48.0"/>
-    <col customWidth="1" min="5" max="5" width="54.5"/>
-    <col customWidth="1" min="6" max="6" width="50.38"/>
-    <col customWidth="1" min="7" max="8" width="40.0"/>
-    <col customWidth="1" min="9" max="9" width="26.0"/>
-    <col customWidth="1" min="10" max="11" width="18.0"/>
-    <col customWidth="1" min="12" max="12" width="32.0"/>
-    <col customWidth="1" min="13" max="36" width="24.0"/>
-    <col customWidth="1" min="37" max="41" width="9.0"/>
+    <col min="1" max="1" width="26.25" customWidth="1"/>
+    <col min="2" max="2" width="64.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48" customWidth="1"/>
+    <col min="5" max="5" width="54.5" customWidth="1"/>
+    <col min="6" max="6" width="50.375" customWidth="1"/>
+    <col min="7" max="7" width="40" customWidth="1"/>
+    <col min="8" max="8" width="40" style="41" customWidth="1"/>
+    <col min="9" max="9" width="26" customWidth="1"/>
+    <col min="10" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="32" customWidth="1"/>
+    <col min="13" max="36" width="24" customWidth="1"/>
+    <col min="37" max="41" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" hidden="1" customHeight="1">
+    <row r="1" spans="1:41" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3720,7 +3818,7 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="39" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
@@ -3813,7 +3911,7 @@
       <c r="AN1" s="2"/>
       <c r="AO1" s="2"/>
     </row>
-    <row r="2" ht="13.5" hidden="1" customHeight="1">
+    <row r="2" spans="1:41" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>36</v>
       </c>
@@ -3827,7 +3925,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
+      <c r="H2" s="39"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -3862,7 +3960,7 @@
       <c r="AN2" s="2"/>
       <c r="AO2" s="2"/>
     </row>
-    <row r="3" ht="43.5" customHeight="1">
+    <row r="3" spans="1:41" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>39</v>
       </c>
@@ -3884,7 +3982,9 @@
       <c r="G3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="40" t="s">
+        <v>902</v>
+      </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
@@ -3919,7 +4019,7 @@
       <c r="AN3" s="9"/>
       <c r="AO3" s="9"/>
     </row>
-    <row r="4" ht="40.5" customHeight="1">
+    <row r="4" spans="1:41" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>46</v>
       </c>
@@ -3939,9 +4039,11 @@
         <v>51</v>
       </c>
       <c r="G4" s="13">
-        <v>2095.0</v>
-      </c>
-      <c r="H4" s="3"/>
+        <v>2095</v>
+      </c>
+      <c r="H4" s="39">
+        <v>1.6</v>
+      </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -3976,7 +4078,7 @@
       <c r="AN4" s="14"/>
       <c r="AO4" s="14"/>
     </row>
-    <row r="5" ht="46.5" customHeight="1">
+    <row r="5" spans="1:41" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>52</v>
       </c>
@@ -3996,9 +4098,11 @@
         <v>57</v>
       </c>
       <c r="G5" s="17">
-        <v>5295.0</v>
-      </c>
-      <c r="H5" s="18"/>
+        <v>5295</v>
+      </c>
+      <c r="H5" s="38">
+        <v>0.9</v>
+      </c>
       <c r="I5" s="18"/>
       <c r="J5" s="19"/>
       <c r="K5" s="3"/>
@@ -4033,7 +4137,7 @@
       <c r="AN5" s="14"/>
       <c r="AO5" s="14"/>
     </row>
-    <row r="6" ht="40.5" customHeight="1">
+    <row r="6" spans="1:41" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>58</v>
       </c>
@@ -4053,9 +4157,11 @@
         <v>62</v>
       </c>
       <c r="G6" s="21">
-        <v>5695.0</v>
-      </c>
-      <c r="H6" s="3"/>
+        <v>5695</v>
+      </c>
+      <c r="H6" s="39">
+        <v>0.9</v>
+      </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -4090,7 +4196,7 @@
       <c r="AN6" s="14"/>
       <c r="AO6" s="14"/>
     </row>
-    <row r="7" ht="43.5" customHeight="1">
+    <row r="7" spans="1:41" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>63</v>
       </c>
@@ -4110,9 +4216,11 @@
         <v>66</v>
       </c>
       <c r="G7" s="13">
-        <v>6395.0</v>
-      </c>
-      <c r="H7" s="2"/>
+        <v>6395</v>
+      </c>
+      <c r="H7" s="39">
+        <v>1.6</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -4147,7 +4255,7 @@
       <c r="AN7" s="2"/>
       <c r="AO7" s="2"/>
     </row>
-    <row r="8" ht="43.5" customHeight="1">
+    <row r="8" spans="1:41" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>67</v>
       </c>
@@ -4167,9 +4275,11 @@
         <v>71</v>
       </c>
       <c r="G8" s="13">
-        <v>5695.0</v>
-      </c>
-      <c r="H8" s="2"/>
+        <v>5695</v>
+      </c>
+      <c r="H8" s="39">
+        <v>1.05</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -4204,7 +4314,7 @@
       <c r="AN8" s="2"/>
       <c r="AO8" s="2"/>
     </row>
-    <row r="9" ht="48.75" customHeight="1">
+    <row r="9" spans="1:41" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>72</v>
       </c>
@@ -4224,9 +4334,11 @@
         <v>77</v>
       </c>
       <c r="G9" s="13">
-        <v>1895.0</v>
-      </c>
-      <c r="H9" s="2"/>
+        <v>1895</v>
+      </c>
+      <c r="H9" s="39">
+        <v>1.2829999999999999</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -4261,7 +4373,7 @@
       <c r="AN9" s="2"/>
       <c r="AO9" s="2"/>
     </row>
-    <row r="10" ht="43.5" customHeight="1">
+    <row r="10" spans="1:41" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>78</v>
       </c>
@@ -4281,9 +4393,11 @@
         <v>83</v>
       </c>
       <c r="G10" s="13">
-        <v>2795.0</v>
-      </c>
-      <c r="H10" s="2"/>
+        <v>2795</v>
+      </c>
+      <c r="H10" s="39">
+        <v>1.7</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -4318,7 +4432,7 @@
       <c r="AN10" s="2"/>
       <c r="AO10" s="2"/>
     </row>
-    <row r="11" ht="41.25" customHeight="1">
+    <row r="11" spans="1:41" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>84</v>
       </c>
@@ -4338,9 +4452,11 @@
         <v>89</v>
       </c>
       <c r="G11" s="13">
-        <v>5995.0</v>
-      </c>
-      <c r="H11" s="2"/>
+        <v>5995</v>
+      </c>
+      <c r="H11" s="39">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -4375,7 +4491,7 @@
       <c r="AN11" s="2"/>
       <c r="AO11" s="2"/>
     </row>
-    <row r="12" ht="39.0" customHeight="1">
+    <row r="12" spans="1:41" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>90</v>
       </c>
@@ -4395,9 +4511,11 @@
         <v>95</v>
       </c>
       <c r="G12" s="13">
-        <v>11995.0</v>
-      </c>
-      <c r="H12" s="2"/>
+        <v>11995</v>
+      </c>
+      <c r="H12" s="39">
+        <v>5.6</v>
+      </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -4432,7 +4550,7 @@
       <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
     </row>
-    <row r="13" ht="34.5" customHeight="1">
+    <row r="13" spans="1:41" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>96</v>
       </c>
@@ -4452,9 +4570,11 @@
         <v>100</v>
       </c>
       <c r="G13" s="13">
-        <v>13395.0</v>
-      </c>
-      <c r="H13" s="2"/>
+        <v>13395</v>
+      </c>
+      <c r="H13" s="39">
+        <v>5.7</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -4489,7 +4609,7 @@
       <c r="AN13" s="2"/>
       <c r="AO13" s="2"/>
     </row>
-    <row r="14" ht="39.75" customHeight="1">
+    <row r="14" spans="1:41" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>101</v>
       </c>
@@ -4509,9 +4629,11 @@
         <v>106</v>
       </c>
       <c r="G14" s="13">
-        <v>3395.0</v>
-      </c>
-      <c r="H14" s="2"/>
+        <v>3395</v>
+      </c>
+      <c r="H14" s="39">
+        <v>2.9</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -4546,7 +4668,7 @@
       <c r="AN14" s="2"/>
       <c r="AO14" s="2"/>
     </row>
-    <row r="15" ht="42.75" customHeight="1">
+    <row r="15" spans="1:41" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>107</v>
       </c>
@@ -4566,9 +4688,11 @@
         <v>112</v>
       </c>
       <c r="G15" s="13">
-        <v>8695.0</v>
-      </c>
-      <c r="H15" s="2"/>
+        <v>8695</v>
+      </c>
+      <c r="H15" s="39">
+        <v>13.5</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -4603,7 +4727,7 @@
       <c r="AN15" s="2"/>
       <c r="AO15" s="2"/>
     </row>
-    <row r="16" ht="35.25" customHeight="1">
+    <row r="16" spans="1:41" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>113</v>
       </c>
@@ -4623,9 +4747,11 @@
         <v>118</v>
       </c>
       <c r="G16" s="13">
-        <v>4495.0</v>
-      </c>
-      <c r="H16" s="2"/>
+        <v>4495</v>
+      </c>
+      <c r="H16" s="39">
+        <v>3.9</v>
+      </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -4660,7 +4786,7 @@
       <c r="AN16" s="2"/>
       <c r="AO16" s="2"/>
     </row>
-    <row r="17" ht="38.25" customHeight="1">
+    <row r="17" spans="1:41" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>119</v>
       </c>
@@ -4680,9 +4806,11 @@
         <v>122</v>
       </c>
       <c r="G17" s="13">
-        <v>5095.0</v>
-      </c>
-      <c r="H17" s="2"/>
+        <v>5095</v>
+      </c>
+      <c r="H17" s="39">
+        <v>3.7</v>
+      </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -4717,7 +4845,7 @@
       <c r="AN17" s="2"/>
       <c r="AO17" s="2"/>
     </row>
-    <row r="18" ht="45.75" customHeight="1">
+    <row r="18" spans="1:41" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>123</v>
       </c>
@@ -4737,9 +4865,11 @@
         <v>128</v>
       </c>
       <c r="G18" s="13">
-        <v>14995.0</v>
-      </c>
-      <c r="H18" s="2"/>
+        <v>14995</v>
+      </c>
+      <c r="H18" s="39">
+        <v>24.4</v>
+      </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -4774,7 +4904,7 @@
       <c r="AN18" s="2"/>
       <c r="AO18" s="2"/>
     </row>
-    <row r="19" ht="45.0" customHeight="1">
+    <row r="19" spans="1:41" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>129</v>
       </c>
@@ -4794,9 +4924,11 @@
         <v>134</v>
       </c>
       <c r="G19" s="13">
-        <v>3695.0</v>
-      </c>
-      <c r="H19" s="2"/>
+        <v>3695</v>
+      </c>
+      <c r="H19" s="39">
+        <v>2.29</v>
+      </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -4831,7 +4963,7 @@
       <c r="AN19" s="2"/>
       <c r="AO19" s="2"/>
     </row>
-    <row r="20" ht="36.75" customHeight="1">
+    <row r="20" spans="1:41" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>135</v>
       </c>
@@ -4851,9 +4983,11 @@
         <v>140</v>
       </c>
       <c r="G20" s="19">
-        <v>4595.0</v>
-      </c>
-      <c r="H20" s="2"/>
+        <v>4595</v>
+      </c>
+      <c r="H20" s="39">
+        <v>2.8</v>
+      </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -4888,7 +5022,7 @@
       <c r="AN20" s="2"/>
       <c r="AO20" s="2"/>
     </row>
-    <row r="21" ht="33.75" customHeight="1">
+    <row r="21" spans="1:41" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>141</v>
       </c>
@@ -4908,9 +5042,11 @@
         <v>146</v>
       </c>
       <c r="G21" s="19">
-        <v>2295.0</v>
-      </c>
-      <c r="H21" s="2"/>
+        <v>2295</v>
+      </c>
+      <c r="H21" s="39">
+        <v>1.2</v>
+      </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -4945,7 +5081,7 @@
       <c r="AN21" s="2"/>
       <c r="AO21" s="2"/>
     </row>
-    <row r="22" ht="39.75" customHeight="1">
+    <row r="22" spans="1:41" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>147</v>
       </c>
@@ -4965,9 +5101,11 @@
         <v>152</v>
       </c>
       <c r="G22" s="19">
-        <v>3295.0</v>
-      </c>
-      <c r="H22" s="2"/>
+        <v>3295</v>
+      </c>
+      <c r="H22" s="39">
+        <v>1.4</v>
+      </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -5002,7 +5140,7 @@
       <c r="AN22" s="2"/>
       <c r="AO22" s="2"/>
     </row>
-    <row r="23" ht="45.0" customHeight="1">
+    <row r="23" spans="1:41" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>153</v>
       </c>
@@ -5022,9 +5160,11 @@
         <v>157</v>
       </c>
       <c r="G23" s="19">
-        <v>5995.0</v>
-      </c>
-      <c r="H23" s="2"/>
+        <v>5995</v>
+      </c>
+      <c r="H23" s="39">
+        <v>4.2</v>
+      </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -5059,7 +5199,7 @@
       <c r="AN23" s="2"/>
       <c r="AO23" s="2"/>
     </row>
-    <row r="24" ht="39.0" customHeight="1">
+    <row r="24" spans="1:41" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>158</v>
       </c>
@@ -5079,9 +5219,11 @@
         <v>161</v>
       </c>
       <c r="G24" s="19">
-        <v>6695.0</v>
-      </c>
-      <c r="H24" s="2"/>
+        <v>6695</v>
+      </c>
+      <c r="H24" s="39">
+        <v>3.5</v>
+      </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -5116,7 +5258,7 @@
       <c r="AN24" s="2"/>
       <c r="AO24" s="2"/>
     </row>
-    <row r="25" ht="29.25" customHeight="1">
+    <row r="25" spans="1:41" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>162</v>
       </c>
@@ -5136,9 +5278,11 @@
         <v>167</v>
       </c>
       <c r="G25" s="19">
-        <v>3795.0</v>
-      </c>
-      <c r="H25" s="2"/>
+        <v>3795</v>
+      </c>
+      <c r="H25" s="39">
+        <v>1.4</v>
+      </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -5173,7 +5317,7 @@
       <c r="AN25" s="2"/>
       <c r="AO25" s="2"/>
     </row>
-    <row r="26" ht="25.5" customHeight="1">
+    <row r="26" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>168</v>
       </c>
@@ -5193,9 +5337,11 @@
         <v>157</v>
       </c>
       <c r="G26" s="19">
-        <v>2995.0</v>
-      </c>
-      <c r="H26" s="2"/>
+        <v>2995</v>
+      </c>
+      <c r="H26" s="39">
+        <v>1.4</v>
+      </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -5230,7 +5376,7 @@
       <c r="AN26" s="2"/>
       <c r="AO26" s="2"/>
     </row>
-    <row r="27" ht="33.75" customHeight="1">
+    <row r="27" spans="1:41" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>172</v>
       </c>
@@ -5250,9 +5396,9 @@
         <v>177</v>
       </c>
       <c r="G27" s="19">
-        <v>5825.0</v>
-      </c>
-      <c r="H27" s="2"/>
+        <v>5825</v>
+      </c>
+      <c r="H27" s="39"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -5287,7 +5433,7 @@
       <c r="AN27" s="2"/>
       <c r="AO27" s="2"/>
     </row>
-    <row r="28" ht="51.75" customHeight="1">
+    <row r="28" spans="1:41" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>178</v>
       </c>
@@ -5307,9 +5453,11 @@
         <v>182</v>
       </c>
       <c r="G28" s="19">
-        <v>22225.0</v>
-      </c>
-      <c r="H28" s="2"/>
+        <v>22225</v>
+      </c>
+      <c r="H28" s="41">
+        <v>1</v>
+      </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -5344,7 +5492,7 @@
       <c r="AN28" s="2"/>
       <c r="AO28" s="2"/>
     </row>
-    <row r="29" ht="40.5" customHeight="1">
+    <row r="29" spans="1:41" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>183</v>
       </c>
@@ -5364,9 +5512,11 @@
         <v>187</v>
       </c>
       <c r="G29" s="19">
-        <v>26175.0</v>
-      </c>
-      <c r="H29" s="2"/>
+        <v>26175</v>
+      </c>
+      <c r="H29" s="39">
+        <v>0.6</v>
+      </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -5401,7 +5551,7 @@
       <c r="AN29" s="2"/>
       <c r="AO29" s="2"/>
     </row>
-    <row r="30" ht="43.5" customHeight="1">
+    <row r="30" spans="1:41" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>188</v>
       </c>
@@ -5421,9 +5571,11 @@
         <v>192</v>
       </c>
       <c r="G30" s="19">
-        <v>19650.0</v>
-      </c>
-      <c r="H30" s="2"/>
+        <v>19650</v>
+      </c>
+      <c r="H30" s="39">
+        <v>0.82</v>
+      </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -5458,7 +5610,7 @@
       <c r="AN30" s="2"/>
       <c r="AO30" s="2"/>
     </row>
-    <row r="31" ht="62.25" customHeight="1">
+    <row r="31" spans="1:41" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>193</v>
       </c>
@@ -5478,9 +5630,11 @@
         <v>196</v>
       </c>
       <c r="G31" s="19">
-        <v>20375.0</v>
-      </c>
-      <c r="H31" s="2"/>
+        <v>20375</v>
+      </c>
+      <c r="H31" s="39">
+        <v>0.82</v>
+      </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -5515,7 +5669,7 @@
       <c r="AN31" s="2"/>
       <c r="AO31" s="2"/>
     </row>
-    <row r="32" ht="47.25" customHeight="1">
+    <row r="32" spans="1:41" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>197</v>
       </c>
@@ -5535,9 +5689,11 @@
         <v>201</v>
       </c>
       <c r="G32" s="19">
-        <v>21000.0</v>
-      </c>
-      <c r="H32" s="2"/>
+        <v>21000</v>
+      </c>
+      <c r="H32" s="39">
+        <v>1.5</v>
+      </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
@@ -5572,7 +5728,7 @@
       <c r="AN32" s="2"/>
       <c r="AO32" s="2"/>
     </row>
-    <row r="33" ht="54.0" customHeight="1">
+    <row r="33" spans="1:41" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>202</v>
       </c>
@@ -5592,9 +5748,11 @@
         <v>206</v>
       </c>
       <c r="G33" s="19">
-        <v>3275.0</v>
-      </c>
-      <c r="H33" s="2"/>
+        <v>3275</v>
+      </c>
+      <c r="H33" s="39">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -5629,7 +5787,7 @@
       <c r="AN33" s="2"/>
       <c r="AO33" s="2"/>
     </row>
-    <row r="34" ht="51.0" customHeight="1">
+    <row r="34" spans="1:41" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>207</v>
       </c>
@@ -5649,9 +5807,11 @@
         <v>206</v>
       </c>
       <c r="G34" s="19">
-        <v>3650.0</v>
-      </c>
-      <c r="H34" s="2"/>
+        <v>3650</v>
+      </c>
+      <c r="H34" s="39">
+        <v>0.15</v>
+      </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
@@ -5686,7 +5846,7 @@
       <c r="AN34" s="2"/>
       <c r="AO34" s="2"/>
     </row>
-    <row r="35" ht="42.75" customHeight="1">
+    <row r="35" spans="1:41" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>210</v>
       </c>
@@ -5706,9 +5866,11 @@
         <v>206</v>
       </c>
       <c r="G35" s="19">
-        <v>5500.0</v>
-      </c>
-      <c r="H35" s="2"/>
+        <v>5500</v>
+      </c>
+      <c r="H35" s="39">
+        <v>0.3</v>
+      </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -5743,7 +5905,7 @@
       <c r="AN35" s="2"/>
       <c r="AO35" s="2"/>
     </row>
-    <row r="36" ht="47.25" customHeight="1">
+    <row r="36" spans="1:41" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
         <v>213</v>
       </c>
@@ -5763,9 +5925,11 @@
         <v>217</v>
       </c>
       <c r="G36" s="30">
-        <v>8850.0</v>
-      </c>
-      <c r="H36" s="2"/>
+        <v>8850</v>
+      </c>
+      <c r="H36" s="39">
+        <v>0.9</v>
+      </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -5800,7 +5964,7 @@
       <c r="AN36" s="2"/>
       <c r="AO36" s="2"/>
     </row>
-    <row r="37" ht="33.0" customHeight="1">
+    <row r="37" spans="1:41" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>46</v>
       </c>
@@ -5820,9 +5984,11 @@
         <v>51</v>
       </c>
       <c r="G37" s="13">
-        <v>2095.0</v>
-      </c>
-      <c r="H37" s="2"/>
+        <v>2095</v>
+      </c>
+      <c r="H37" s="39">
+        <v>1.6</v>
+      </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -5857,7 +6023,7 @@
       <c r="AN37" s="2"/>
       <c r="AO37" s="2"/>
     </row>
-    <row r="38" ht="42.0" customHeight="1">
+    <row r="38" spans="1:41" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
         <v>218</v>
       </c>
@@ -5877,9 +6043,11 @@
         <v>221</v>
       </c>
       <c r="G38" s="19">
-        <v>15950.0</v>
-      </c>
-      <c r="H38" s="2"/>
+        <v>15950</v>
+      </c>
+      <c r="H38" s="39">
+        <v>1.5</v>
+      </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -5914,7 +6082,7 @@
       <c r="AN38" s="2"/>
       <c r="AO38" s="2"/>
     </row>
-    <row r="39" ht="42.0" customHeight="1">
+    <row r="39" spans="1:41" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>222</v>
       </c>
@@ -5934,9 +6102,11 @@
         <v>225</v>
       </c>
       <c r="G39" s="19">
-        <v>15950.0</v>
-      </c>
-      <c r="H39" s="2"/>
+        <v>15950</v>
+      </c>
+      <c r="H39" s="39">
+        <v>1.4</v>
+      </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
@@ -5971,7 +6141,7 @@
       <c r="AN39" s="2"/>
       <c r="AO39" s="2"/>
     </row>
-    <row r="40" ht="39.75" customHeight="1">
+    <row r="40" spans="1:41" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>226</v>
       </c>
@@ -5991,9 +6161,9 @@
         <v>230</v>
       </c>
       <c r="G40" s="19">
-        <v>10875.0</v>
-      </c>
-      <c r="H40" s="2"/>
+        <v>10875</v>
+      </c>
+      <c r="H40" s="39"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
@@ -6028,7 +6198,7 @@
       <c r="AN40" s="2"/>
       <c r="AO40" s="2"/>
     </row>
-    <row r="41" ht="39.75" customHeight="1">
+    <row r="41" spans="1:41" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>231</v>
       </c>
@@ -6048,9 +6218,11 @@
         <v>235</v>
       </c>
       <c r="G41" s="19">
-        <v>10125.0</v>
-      </c>
-      <c r="H41" s="2"/>
+        <v>10125</v>
+      </c>
+      <c r="H41" s="39">
+        <v>0.62</v>
+      </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
@@ -6085,7 +6257,7 @@
       <c r="AN41" s="2"/>
       <c r="AO41" s="2"/>
     </row>
-    <row r="42" ht="52.5" customHeight="1">
+    <row r="42" spans="1:41" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>236</v>
       </c>
@@ -6105,9 +6277,11 @@
         <v>240</v>
       </c>
       <c r="G42" s="19">
-        <v>17050.0</v>
-      </c>
-      <c r="H42" s="2"/>
+        <v>17050</v>
+      </c>
+      <c r="H42" s="39">
+        <v>0.81</v>
+      </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
@@ -6142,7 +6316,7 @@
       <c r="AN42" s="2"/>
       <c r="AO42" s="2"/>
     </row>
-    <row r="43" ht="36.0" customHeight="1">
+    <row r="43" spans="1:41" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>241</v>
       </c>
@@ -6162,9 +6336,11 @@
         <v>245</v>
       </c>
       <c r="G43" s="19">
-        <v>23350.0</v>
-      </c>
-      <c r="H43" s="2"/>
+        <v>23350</v>
+      </c>
+      <c r="H43" s="39">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
@@ -6199,7 +6375,7 @@
       <c r="AN43" s="2"/>
       <c r="AO43" s="2"/>
     </row>
-    <row r="44" ht="34.5" customHeight="1">
+    <row r="44" spans="1:41" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>246</v>
       </c>
@@ -6207,7 +6383,7 @@
         <v>148</v>
       </c>
       <c r="C44" s="18">
-        <v>6.01372101E8</v>
+        <v>601372101</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>190</v>
@@ -6219,9 +6395,11 @@
         <v>248</v>
       </c>
       <c r="G44" s="19">
-        <v>14275.0</v>
-      </c>
-      <c r="H44" s="2"/>
+        <v>14275</v>
+      </c>
+      <c r="H44" s="39">
+        <v>0.95</v>
+      </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
@@ -6256,7 +6434,7 @@
       <c r="AN44" s="2"/>
       <c r="AO44" s="2"/>
     </row>
-    <row r="45" ht="54.0" customHeight="1">
+    <row r="45" spans="1:41" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>249</v>
       </c>
@@ -6276,9 +6454,11 @@
         <v>252</v>
       </c>
       <c r="G45" s="19">
-        <v>28650.0</v>
-      </c>
-      <c r="H45" s="2"/>
+        <v>28650</v>
+      </c>
+      <c r="H45" s="39">
+        <v>1.5</v>
+      </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
@@ -6313,7 +6493,7 @@
       <c r="AN45" s="2"/>
       <c r="AO45" s="2"/>
     </row>
-    <row r="46" ht="57.0" customHeight="1">
+    <row r="46" spans="1:41" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>253</v>
       </c>
@@ -6333,9 +6513,11 @@
         <v>257</v>
       </c>
       <c r="G46" s="19">
-        <v>17050.0</v>
-      </c>
-      <c r="H46" s="2"/>
+        <v>17050</v>
+      </c>
+      <c r="H46" s="39">
+        <v>0.9</v>
+      </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
@@ -6370,7 +6552,7 @@
       <c r="AN46" s="2"/>
       <c r="AO46" s="2"/>
     </row>
-    <row r="47" ht="42.75" customHeight="1">
+    <row r="47" spans="1:41" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>258</v>
       </c>
@@ -6390,9 +6572,11 @@
         <v>262</v>
       </c>
       <c r="G47" s="19">
-        <v>3650.0</v>
-      </c>
-      <c r="H47" s="2"/>
+        <v>3650</v>
+      </c>
+      <c r="H47" s="39">
+        <v>0.18</v>
+      </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
@@ -6427,7 +6611,7 @@
       <c r="AN47" s="2"/>
       <c r="AO47" s="2"/>
     </row>
-    <row r="48" ht="40.5" customHeight="1">
+    <row r="48" spans="1:41" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>263</v>
       </c>
@@ -6447,9 +6631,11 @@
         <v>262</v>
       </c>
       <c r="G48" s="19">
-        <v>7050.0</v>
-      </c>
-      <c r="H48" s="2"/>
+        <v>7050</v>
+      </c>
+      <c r="H48" s="39">
+        <v>0.37</v>
+      </c>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
@@ -6484,7 +6670,7 @@
       <c r="AN48" s="2"/>
       <c r="AO48" s="2"/>
     </row>
-    <row r="49" ht="35.25" customHeight="1">
+    <row r="49" spans="1:41" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>266</v>
       </c>
@@ -6504,9 +6690,11 @@
         <v>262</v>
       </c>
       <c r="G49" s="19">
-        <v>10625.0</v>
-      </c>
-      <c r="H49" s="2"/>
+        <v>10625</v>
+      </c>
+      <c r="H49" s="39">
+        <v>0.37</v>
+      </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
@@ -6541,7 +6729,7 @@
       <c r="AN49" s="2"/>
       <c r="AO49" s="2"/>
     </row>
-    <row r="50" ht="36.0" customHeight="1">
+    <row r="50" spans="1:41" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>269</v>
       </c>
@@ -6561,9 +6749,9 @@
         <v>271</v>
       </c>
       <c r="G50" s="19">
-        <v>10000.0</v>
-      </c>
-      <c r="H50" s="2"/>
+        <v>10000</v>
+      </c>
+      <c r="H50" s="39"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
@@ -6598,7 +6786,7 @@
       <c r="AN50" s="2"/>
       <c r="AO50" s="2"/>
     </row>
-    <row r="51" ht="38.25" customHeight="1">
+    <row r="51" spans="1:41" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
         <v>272</v>
       </c>
@@ -6618,9 +6806,11 @@
         <v>274</v>
       </c>
       <c r="G51" s="19">
-        <v>4325.0</v>
-      </c>
-      <c r="H51" s="2"/>
+        <v>4325</v>
+      </c>
+      <c r="H51" s="39">
+        <v>0.45</v>
+      </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
@@ -6655,7 +6845,7 @@
       <c r="AN51" s="2"/>
       <c r="AO51" s="2"/>
     </row>
-    <row r="52" ht="59.25" customHeight="1">
+    <row r="52" spans="1:41" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
         <v>275</v>
       </c>
@@ -6675,9 +6865,11 @@
         <v>278</v>
       </c>
       <c r="G52" s="19">
-        <v>19025.0</v>
-      </c>
-      <c r="H52" s="2"/>
+        <v>19025</v>
+      </c>
+      <c r="H52" s="39">
+        <v>1.3</v>
+      </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
@@ -6712,7 +6904,7 @@
       <c r="AN52" s="2"/>
       <c r="AO52" s="2"/>
     </row>
-    <row r="53" ht="66.0" customHeight="1">
+    <row r="53" spans="1:41" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
         <v>279</v>
       </c>
@@ -6732,9 +6924,9 @@
         <v>282</v>
       </c>
       <c r="G53" s="19">
-        <v>27050.0</v>
-      </c>
-      <c r="H53" s="2"/>
+        <v>27050</v>
+      </c>
+      <c r="H53" s="39"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
@@ -6769,7 +6961,7 @@
       <c r="AN53" s="2"/>
       <c r="AO53" s="2"/>
     </row>
-    <row r="54" ht="61.5" customHeight="1">
+    <row r="54" spans="1:41" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
         <v>283</v>
       </c>
@@ -6789,9 +6981,11 @@
         <v>286</v>
       </c>
       <c r="G54" s="19">
-        <v>21125.0</v>
-      </c>
-      <c r="H54" s="2"/>
+        <v>21125</v>
+      </c>
+      <c r="H54" s="39">
+        <v>1.3</v>
+      </c>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
@@ -6826,7 +7020,7 @@
       <c r="AN54" s="2"/>
       <c r="AO54" s="2"/>
     </row>
-    <row r="55" ht="71.25" customHeight="1">
+    <row r="55" spans="1:41" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
         <v>287</v>
       </c>
@@ -6846,9 +7040,9 @@
         <v>282</v>
       </c>
       <c r="G55" s="19">
-        <v>29150.0</v>
-      </c>
-      <c r="H55" s="2"/>
+        <v>29150</v>
+      </c>
+      <c r="H55" s="39"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
@@ -6883,7 +7077,7 @@
       <c r="AN55" s="2"/>
       <c r="AO55" s="2"/>
     </row>
-    <row r="56" ht="42.0" customHeight="1">
+    <row r="56" spans="1:41" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
         <v>290</v>
       </c>
@@ -6903,9 +7097,9 @@
         <v>293</v>
       </c>
       <c r="G56" s="19">
-        <v>21125.0</v>
-      </c>
-      <c r="H56" s="2"/>
+        <v>21125</v>
+      </c>
+      <c r="H56" s="39"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
@@ -6940,7 +7134,7 @@
       <c r="AN56" s="2"/>
       <c r="AO56" s="2"/>
     </row>
-    <row r="57" ht="46.5" customHeight="1">
+    <row r="57" spans="1:41" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
         <v>294</v>
       </c>
@@ -6960,9 +7154,9 @@
         <v>299</v>
       </c>
       <c r="G57" s="19">
-        <v>29075.0</v>
-      </c>
-      <c r="H57" s="2"/>
+        <v>29075</v>
+      </c>
+      <c r="H57" s="39"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
@@ -6997,7 +7191,7 @@
       <c r="AN57" s="2"/>
       <c r="AO57" s="2"/>
     </row>
-    <row r="58" ht="48.0" customHeight="1">
+    <row r="58" spans="1:41" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
         <v>300</v>
       </c>
@@ -7017,9 +7211,9 @@
         <v>304</v>
       </c>
       <c r="G58" s="19">
-        <v>25375.0</v>
-      </c>
-      <c r="H58" s="2"/>
+        <v>25375</v>
+      </c>
+      <c r="H58" s="39"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
@@ -7054,7 +7248,7 @@
       <c r="AN58" s="2"/>
       <c r="AO58" s="2"/>
     </row>
-    <row r="59" ht="47.25" customHeight="1">
+    <row r="59" spans="1:41" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
         <v>305</v>
       </c>
@@ -7074,9 +7268,9 @@
         <v>310</v>
       </c>
       <c r="G59" s="19">
-        <v>41250.0</v>
-      </c>
-      <c r="H59" s="2"/>
+        <v>41250</v>
+      </c>
+      <c r="H59" s="39"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
@@ -7111,7 +7305,7 @@
       <c r="AN59" s="2"/>
       <c r="AO59" s="2"/>
     </row>
-    <row r="60" ht="60.0" customHeight="1">
+    <row r="60" spans="1:41" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
         <v>311</v>
       </c>
@@ -7131,9 +7325,9 @@
         <v>315</v>
       </c>
       <c r="G60" s="19">
-        <v>62975.0</v>
-      </c>
-      <c r="H60" s="2"/>
+        <v>62975</v>
+      </c>
+      <c r="H60" s="39"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
@@ -7168,7 +7362,7 @@
       <c r="AN60" s="2"/>
       <c r="AO60" s="2"/>
     </row>
-    <row r="61" ht="66.0" customHeight="1">
+    <row r="61" spans="1:41" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="s">
         <v>316</v>
       </c>
@@ -7188,9 +7382,9 @@
         <v>321</v>
       </c>
       <c r="G61" s="19">
-        <v>18100.0</v>
-      </c>
-      <c r="H61" s="2"/>
+        <v>18100</v>
+      </c>
+      <c r="H61" s="39"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
@@ -7225,7 +7419,7 @@
       <c r="AN61" s="2"/>
       <c r="AO61" s="2"/>
     </row>
-    <row r="62" ht="91.5" customHeight="1">
+    <row r="62" spans="1:41" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
         <v>322</v>
       </c>
@@ -7245,9 +7439,9 @@
         <v>321</v>
       </c>
       <c r="G62" s="19">
-        <v>18900.0</v>
-      </c>
-      <c r="H62" s="2"/>
+        <v>18900</v>
+      </c>
+      <c r="H62" s="39"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
@@ -7282,7 +7476,7 @@
       <c r="AN62" s="2"/>
       <c r="AO62" s="2"/>
     </row>
-    <row r="63" ht="45.0" customHeight="1">
+    <row r="63" spans="1:41" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
         <v>325</v>
       </c>
@@ -7302,9 +7496,12 @@
         <v>329</v>
       </c>
       <c r="G63" s="19">
-        <v>17550.0</v>
-      </c>
-      <c r="H63" s="2"/>
+        <v>17550</v>
+      </c>
+      <c r="H63" s="39">
+        <f>H71</f>
+        <v>2.1</v>
+      </c>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
@@ -7339,7 +7536,7 @@
       <c r="AN63" s="2"/>
       <c r="AO63" s="2"/>
     </row>
-    <row r="64" ht="42.75" customHeight="1">
+    <row r="64" spans="1:41" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
         <v>330</v>
       </c>
@@ -7359,9 +7556,9 @@
         <v>329</v>
       </c>
       <c r="G64" s="19">
-        <v>17550.0</v>
-      </c>
-      <c r="H64" s="2"/>
+        <v>17550</v>
+      </c>
+      <c r="H64" s="39"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
@@ -7396,7 +7593,7 @@
       <c r="AN64" s="2"/>
       <c r="AO64" s="2"/>
     </row>
-    <row r="65" ht="39.75" customHeight="1">
+    <row r="65" spans="1:41" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
         <v>334</v>
       </c>
@@ -7416,9 +7613,11 @@
         <v>338</v>
       </c>
       <c r="G65" s="19">
-        <v>16800.0</v>
-      </c>
-      <c r="H65" s="2"/>
+        <v>16800</v>
+      </c>
+      <c r="H65" s="39">
+        <v>0.95</v>
+      </c>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
@@ -7453,7 +7652,7 @@
       <c r="AN65" s="2"/>
       <c r="AO65" s="2"/>
     </row>
-    <row r="66" ht="48.0" customHeight="1">
+    <row r="66" spans="1:41" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
         <v>305</v>
       </c>
@@ -7473,9 +7672,9 @@
         <v>341</v>
       </c>
       <c r="G66" s="19">
-        <v>21000.0</v>
-      </c>
-      <c r="H66" s="2"/>
+        <v>21000</v>
+      </c>
+      <c r="H66" s="39"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
@@ -7510,7 +7709,7 @@
       <c r="AN66" s="2"/>
       <c r="AO66" s="2"/>
     </row>
-    <row r="67" ht="58.5" customHeight="1">
+    <row r="67" spans="1:41" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="18" t="s">
         <v>311</v>
       </c>
@@ -7518,7 +7717,7 @@
         <v>85</v>
       </c>
       <c r="C67" s="18">
-        <v>6.11923181E8</v>
+        <v>611923181</v>
       </c>
       <c r="D67" s="18" t="s">
         <v>319</v>
@@ -7530,9 +7729,9 @@
         <v>343</v>
       </c>
       <c r="G67" s="19">
-        <v>30875.0</v>
-      </c>
-      <c r="H67" s="2"/>
+        <v>30875</v>
+      </c>
+      <c r="H67" s="39"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
@@ -7567,7 +7766,7 @@
       <c r="AN67" s="2"/>
       <c r="AO67" s="2"/>
     </row>
-    <row r="68" ht="44.25" customHeight="1">
+    <row r="68" spans="1:41" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
         <v>344</v>
       </c>
@@ -7587,9 +7786,9 @@
         <v>347</v>
       </c>
       <c r="G68" s="19">
-        <v>15200.0</v>
-      </c>
-      <c r="H68" s="2"/>
+        <v>15200</v>
+      </c>
+      <c r="H68" s="39"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
@@ -7624,7 +7823,7 @@
       <c r="AN68" s="2"/>
       <c r="AO68" s="2"/>
     </row>
-    <row r="69" ht="43.5" customHeight="1">
+    <row r="69" spans="1:41" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
         <v>348</v>
       </c>
@@ -7644,9 +7843,11 @@
         <v>351</v>
       </c>
       <c r="G69" s="19">
-        <v>18025.0</v>
-      </c>
-      <c r="H69" s="2"/>
+        <v>18025</v>
+      </c>
+      <c r="H69" s="39">
+        <v>1.6</v>
+      </c>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
@@ -7681,7 +7882,7 @@
       <c r="AN69" s="2"/>
       <c r="AO69" s="2"/>
     </row>
-    <row r="70" ht="51.0" customHeight="1">
+    <row r="70" spans="1:41" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
         <v>352</v>
       </c>
@@ -7701,9 +7902,9 @@
         <v>355</v>
       </c>
       <c r="G70" s="19">
-        <v>20750.0</v>
-      </c>
-      <c r="H70" s="2"/>
+        <v>20750</v>
+      </c>
+      <c r="H70" s="39"/>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
@@ -7738,7 +7939,7 @@
       <c r="AN70" s="2"/>
       <c r="AO70" s="2"/>
     </row>
-    <row r="71" ht="43.5" customHeight="1">
+    <row r="71" spans="1:41" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="18" t="s">
         <v>356</v>
       </c>
@@ -7758,9 +7959,11 @@
         <v>359</v>
       </c>
       <c r="G71" s="19">
-        <v>21250.0</v>
-      </c>
-      <c r="H71" s="2"/>
+        <v>21250</v>
+      </c>
+      <c r="H71" s="39">
+        <v>2.1</v>
+      </c>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
@@ -7795,7 +7998,7 @@
       <c r="AN71" s="2"/>
       <c r="AO71" s="2"/>
     </row>
-    <row r="72" ht="45.0" customHeight="1">
+    <row r="72" spans="1:41" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
         <v>360</v>
       </c>
@@ -7815,9 +8018,9 @@
         <v>363</v>
       </c>
       <c r="G72" s="19">
-        <v>22850.0</v>
-      </c>
-      <c r="H72" s="2"/>
+        <v>22850</v>
+      </c>
+      <c r="H72" s="39"/>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
@@ -7852,7 +8055,7 @@
       <c r="AN72" s="2"/>
       <c r="AO72" s="2"/>
     </row>
-    <row r="73" ht="42.75" customHeight="1">
+    <row r="73" spans="1:41" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
         <v>364</v>
       </c>
@@ -7872,9 +8075,9 @@
         <v>367</v>
       </c>
       <c r="G73" s="19">
-        <v>32350.0</v>
-      </c>
-      <c r="H73" s="2"/>
+        <v>32350</v>
+      </c>
+      <c r="H73" s="39"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
@@ -7909,7 +8112,7 @@
       <c r="AN73" s="2"/>
       <c r="AO73" s="2"/>
     </row>
-    <row r="74" ht="36.0" customHeight="1">
+    <row r="74" spans="1:41" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
         <v>368</v>
       </c>
@@ -7929,9 +8132,11 @@
         <v>372</v>
       </c>
       <c r="G74" s="19">
-        <v>30000.0</v>
-      </c>
-      <c r="H74" s="2"/>
+        <v>30000</v>
+      </c>
+      <c r="H74" s="39">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
@@ -7966,7 +8171,7 @@
       <c r="AN74" s="2"/>
       <c r="AO74" s="2"/>
     </row>
-    <row r="75" ht="45.0" customHeight="1">
+    <row r="75" spans="1:41" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="18" t="s">
         <v>373</v>
       </c>
@@ -7986,9 +8191,11 @@
         <v>376</v>
       </c>
       <c r="G75" s="19">
-        <v>23850.0</v>
-      </c>
-      <c r="H75" s="2"/>
+        <v>23850</v>
+      </c>
+      <c r="H75" s="39">
+        <v>1.2</v>
+      </c>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
@@ -8023,7 +8230,7 @@
       <c r="AN75" s="2"/>
       <c r="AO75" s="2"/>
     </row>
-    <row r="76" ht="44.25" customHeight="1">
+    <row r="76" spans="1:41" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="18" t="s">
         <v>377</v>
       </c>
@@ -8043,9 +8250,9 @@
         <v>381</v>
       </c>
       <c r="G76" s="19">
-        <v>7600.0</v>
-      </c>
-      <c r="H76" s="2"/>
+        <v>7600</v>
+      </c>
+      <c r="H76" s="39"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
@@ -8080,7 +8287,7 @@
       <c r="AN76" s="2"/>
       <c r="AO76" s="2"/>
     </row>
-    <row r="77" ht="45.75" customHeight="1">
+    <row r="77" spans="1:41" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
         <v>382</v>
       </c>
@@ -8100,9 +8307,11 @@
         <v>385</v>
       </c>
       <c r="G77" s="19">
-        <v>13725.0</v>
-      </c>
-      <c r="H77" s="2"/>
+        <v>13725</v>
+      </c>
+      <c r="H77" s="39">
+        <v>0.93</v>
+      </c>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
@@ -8137,7 +8346,7 @@
       <c r="AN77" s="2"/>
       <c r="AO77" s="2"/>
     </row>
-    <row r="78" ht="46.5" customHeight="1">
+    <row r="78" spans="1:41" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
         <v>386</v>
       </c>
@@ -8145,7 +8354,7 @@
         <v>148</v>
       </c>
       <c r="C78" s="18">
-        <v>6.01372201E8</v>
+        <v>601372201</v>
       </c>
       <c r="D78" s="18" t="s">
         <v>319</v>
@@ -8157,9 +8366,11 @@
         <v>248</v>
       </c>
       <c r="G78" s="19">
-        <v>16800.0</v>
-      </c>
-      <c r="H78" s="2"/>
+        <v>16800</v>
+      </c>
+      <c r="H78" s="39">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
@@ -8194,7 +8405,7 @@
       <c r="AN78" s="2"/>
       <c r="AO78" s="2"/>
     </row>
-    <row r="79" ht="44.25" customHeight="1">
+    <row r="79" spans="1:41" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
         <v>388</v>
       </c>
@@ -8214,9 +8425,9 @@
         <v>392</v>
       </c>
       <c r="G79" s="19">
-        <v>28775.0</v>
-      </c>
-      <c r="H79" s="2"/>
+        <v>28775</v>
+      </c>
+      <c r="H79" s="39"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
@@ -8251,7 +8462,7 @@
       <c r="AN79" s="2"/>
       <c r="AO79" s="2"/>
     </row>
-    <row r="80" ht="48.0" customHeight="1">
+    <row r="80" spans="1:41" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="18" t="s">
         <v>393</v>
       </c>
@@ -8271,9 +8482,9 @@
         <v>396</v>
       </c>
       <c r="G80" s="19">
-        <v>20250.0</v>
-      </c>
-      <c r="H80" s="2"/>
+        <v>20250</v>
+      </c>
+      <c r="H80" s="39"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
@@ -8308,7 +8519,7 @@
       <c r="AN80" s="2"/>
       <c r="AO80" s="2"/>
     </row>
-    <row r="81" ht="51.75" customHeight="1">
+    <row r="81" spans="1:41" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="18" t="s">
         <v>397</v>
       </c>
@@ -8328,9 +8539,11 @@
         <v>400</v>
       </c>
       <c r="G81" s="19">
-        <v>18650.0</v>
-      </c>
-      <c r="H81" s="2"/>
+        <v>18650</v>
+      </c>
+      <c r="H81" s="39">
+        <v>2</v>
+      </c>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
@@ -8365,7 +8578,7 @@
       <c r="AN81" s="2"/>
       <c r="AO81" s="2"/>
     </row>
-    <row r="82" ht="49.5" customHeight="1">
+    <row r="82" spans="1:41" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="18" t="s">
         <v>401</v>
       </c>
@@ -8385,9 +8598,11 @@
         <v>405</v>
       </c>
       <c r="G82" s="19">
-        <v>22100.0</v>
-      </c>
-      <c r="H82" s="2"/>
+        <v>22100</v>
+      </c>
+      <c r="H82" s="39">
+        <v>3.2</v>
+      </c>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
@@ -8422,7 +8637,7 @@
       <c r="AN82" s="2"/>
       <c r="AO82" s="2"/>
     </row>
-    <row r="83" ht="40.5" customHeight="1">
+    <row r="83" spans="1:41" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="18" t="s">
         <v>406</v>
       </c>
@@ -8442,9 +8657,11 @@
         <v>410</v>
       </c>
       <c r="G83" s="19">
-        <v>80625.0</v>
-      </c>
-      <c r="H83" s="2"/>
+        <v>80625</v>
+      </c>
+      <c r="H83" s="39">
+        <v>1.6</v>
+      </c>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
@@ -8479,7 +8696,7 @@
       <c r="AN83" s="2"/>
       <c r="AO83" s="2"/>
     </row>
-    <row r="84" ht="47.25" customHeight="1">
+    <row r="84" spans="1:41" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
         <v>411</v>
       </c>
@@ -8499,9 +8716,9 @@
         <v>415</v>
       </c>
       <c r="G84" s="19">
-        <v>14700.0</v>
-      </c>
-      <c r="H84" s="2"/>
+        <v>14700</v>
+      </c>
+      <c r="H84" s="39"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
@@ -8536,7 +8753,7 @@
       <c r="AN84" s="2"/>
       <c r="AO84" s="2"/>
     </row>
-    <row r="85" ht="42.0" customHeight="1">
+    <row r="85" spans="1:41" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="s">
         <v>416</v>
       </c>
@@ -8556,9 +8773,11 @@
         <v>419</v>
       </c>
       <c r="G85" s="19">
-        <v>10125.0</v>
-      </c>
-      <c r="H85" s="2"/>
+        <v>10125</v>
+      </c>
+      <c r="H85" s="39">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
@@ -8593,7 +8812,7 @@
       <c r="AN85" s="2"/>
       <c r="AO85" s="2"/>
     </row>
-    <row r="86" ht="39.75" customHeight="1">
+    <row r="86" spans="1:41" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="18" t="s">
         <v>420</v>
       </c>
@@ -8613,9 +8832,9 @@
         <v>423</v>
       </c>
       <c r="G86" s="19">
-        <v>10250.0</v>
-      </c>
-      <c r="H86" s="2"/>
+        <v>10250</v>
+      </c>
+      <c r="H86" s="39"/>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
@@ -8650,7 +8869,7 @@
       <c r="AN86" s="2"/>
       <c r="AO86" s="2"/>
     </row>
-    <row r="87" ht="45.0" customHeight="1">
+    <row r="87" spans="1:41" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="18" t="s">
         <v>424</v>
       </c>
@@ -8670,9 +8889,11 @@
         <v>427</v>
       </c>
       <c r="G87" s="19">
-        <v>19275.0</v>
-      </c>
-      <c r="H87" s="2"/>
+        <v>19275</v>
+      </c>
+      <c r="H87" s="39">
+        <v>4.5999999999999996</v>
+      </c>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
@@ -8707,7 +8928,7 @@
       <c r="AN87" s="2"/>
       <c r="AO87" s="2"/>
     </row>
-    <row r="88" ht="36.75" customHeight="1">
+    <row r="88" spans="1:41" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="18" t="s">
         <v>428</v>
       </c>
@@ -8715,7 +8936,7 @@
         <v>203</v>
       </c>
       <c r="C88" s="18">
-        <v>6.014434E8</v>
+        <v>601443400</v>
       </c>
       <c r="D88" s="18" t="s">
         <v>319</v>
@@ -8727,9 +8948,9 @@
         <v>430</v>
       </c>
       <c r="G88" s="19">
-        <v>5825.0</v>
-      </c>
-      <c r="H88" s="2"/>
+        <v>5825</v>
+      </c>
+      <c r="H88" s="39"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
@@ -8764,7 +8985,7 @@
       <c r="AN88" s="2"/>
       <c r="AO88" s="2"/>
     </row>
-    <row r="89" ht="42.75" customHeight="1">
+    <row r="89" spans="1:41" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="18" t="s">
         <v>431</v>
       </c>
@@ -8772,7 +8993,7 @@
         <v>432</v>
       </c>
       <c r="C89" s="18">
-        <v>6.014464E8</v>
+        <v>601446400</v>
       </c>
       <c r="D89" s="18" t="s">
         <v>319</v>
@@ -8784,9 +9005,9 @@
         <v>206</v>
       </c>
       <c r="G89" s="19">
-        <v>14075.0</v>
-      </c>
-      <c r="H89" s="2"/>
+        <v>14075</v>
+      </c>
+      <c r="H89" s="39"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
@@ -8821,7 +9042,7 @@
       <c r="AN89" s="2"/>
       <c r="AO89" s="2"/>
     </row>
-    <row r="90" ht="49.5" customHeight="1">
+    <row r="90" spans="1:41" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="18" t="s">
         <v>434</v>
       </c>
@@ -8841,9 +9062,9 @@
         <v>438</v>
       </c>
       <c r="G90" s="19">
-        <v>24450.0</v>
-      </c>
-      <c r="H90" s="2"/>
+        <v>24450</v>
+      </c>
+      <c r="H90" s="39"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
@@ -8878,7 +9099,7 @@
       <c r="AN90" s="2"/>
       <c r="AO90" s="2"/>
     </row>
-    <row r="91" ht="83.25" customHeight="1">
+    <row r="91" spans="1:41" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="18" t="s">
         <v>439</v>
       </c>
@@ -8898,9 +9119,9 @@
         <v>442</v>
       </c>
       <c r="G91" s="19">
-        <v>33350.0</v>
-      </c>
-      <c r="H91" s="2"/>
+        <v>33350</v>
+      </c>
+      <c r="H91" s="39"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
@@ -8935,7 +9156,7 @@
       <c r="AN91" s="2"/>
       <c r="AO91" s="2"/>
     </row>
-    <row r="92" ht="55.5" customHeight="1">
+    <row r="92" spans="1:41" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="18" t="s">
         <v>443</v>
       </c>
@@ -8955,9 +9176,9 @@
         <v>446</v>
       </c>
       <c r="G92" s="19">
-        <v>29650.0</v>
-      </c>
-      <c r="H92" s="2"/>
+        <v>29650</v>
+      </c>
+      <c r="H92" s="39"/>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
@@ -8992,7 +9213,7 @@
       <c r="AN92" s="2"/>
       <c r="AO92" s="2"/>
     </row>
-    <row r="93" ht="63.0" customHeight="1">
+    <row r="93" spans="1:41" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="18" t="s">
         <v>447</v>
       </c>
@@ -9012,9 +9233,9 @@
         <v>206</v>
       </c>
       <c r="G93" s="19">
-        <v>32100.0</v>
-      </c>
-      <c r="H93" s="2"/>
+        <v>32100</v>
+      </c>
+      <c r="H93" s="39"/>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
@@ -9049,7 +9270,7 @@
       <c r="AN93" s="2"/>
       <c r="AO93" s="2"/>
     </row>
-    <row r="94" ht="76.5" customHeight="1">
+    <row r="94" spans="1:41" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="18" t="s">
         <v>450</v>
       </c>
@@ -9057,7 +9278,7 @@
         <v>451</v>
       </c>
       <c r="C94" s="18">
-        <v>6.11915082E8</v>
+        <v>611915082</v>
       </c>
       <c r="D94" s="18" t="s">
         <v>319</v>
@@ -9069,9 +9290,11 @@
         <v>453</v>
       </c>
       <c r="G94" s="19">
-        <v>86925.0</v>
-      </c>
-      <c r="H94" s="2"/>
+        <v>86925</v>
+      </c>
+      <c r="H94" s="39">
+        <v>5.0999999999999996</v>
+      </c>
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
@@ -9106,7 +9329,7 @@
       <c r="AN94" s="2"/>
       <c r="AO94" s="2"/>
     </row>
-    <row r="95" ht="81.75" customHeight="1">
+    <row r="95" spans="1:41" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="18" t="s">
         <v>454</v>
       </c>
@@ -9114,7 +9337,7 @@
         <v>451</v>
       </c>
       <c r="C95" s="18">
-        <v>6.1191308E8</v>
+        <v>611913080</v>
       </c>
       <c r="D95" s="18" t="s">
         <v>319</v>
@@ -9126,9 +9349,11 @@
         <v>453</v>
       </c>
       <c r="G95" s="19">
-        <v>129650.0</v>
-      </c>
-      <c r="H95" s="2"/>
+        <v>129650</v>
+      </c>
+      <c r="H95" s="39">
+        <v>8</v>
+      </c>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
@@ -9163,7 +9388,7 @@
       <c r="AN95" s="2"/>
       <c r="AO95" s="2"/>
     </row>
-    <row r="96" ht="63.75" customHeight="1">
+    <row r="96" spans="1:41" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="18" t="s">
         <v>456</v>
       </c>
@@ -9183,9 +9408,11 @@
         <v>206</v>
       </c>
       <c r="G96" s="19">
-        <v>39400.0</v>
-      </c>
-      <c r="H96" s="2"/>
+        <v>39400</v>
+      </c>
+      <c r="H96" s="39">
+        <v>2.1</v>
+      </c>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
@@ -9220,7 +9447,7 @@
       <c r="AN96" s="2"/>
       <c r="AO96" s="2"/>
     </row>
-    <row r="97" ht="63.75" customHeight="1">
+    <row r="97" spans="1:41" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="18" t="s">
         <v>459</v>
       </c>
@@ -9240,9 +9467,11 @@
         <v>462</v>
       </c>
       <c r="G97" s="19">
-        <v>61500.0</v>
-      </c>
-      <c r="H97" s="2"/>
+        <v>61500</v>
+      </c>
+      <c r="H97" s="39">
+        <v>4.3</v>
+      </c>
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
@@ -9277,7 +9506,7 @@
       <c r="AN97" s="2"/>
       <c r="AO97" s="2"/>
     </row>
-    <row r="98" ht="71.25" customHeight="1">
+    <row r="98" spans="1:41" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="18" t="s">
         <v>463</v>
       </c>
@@ -9297,9 +9526,11 @@
         <v>467</v>
       </c>
       <c r="G98" s="19">
-        <v>73975.0</v>
-      </c>
-      <c r="H98" s="2"/>
+        <v>73975</v>
+      </c>
+      <c r="H98" s="39">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
@@ -9334,7 +9565,7 @@
       <c r="AN98" s="2"/>
       <c r="AO98" s="2"/>
     </row>
-    <row r="99" ht="58.5" customHeight="1">
+    <row r="99" spans="1:41" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="18" t="s">
         <v>468</v>
       </c>
@@ -9354,9 +9585,11 @@
         <v>471</v>
       </c>
       <c r="G99" s="19">
-        <v>84575.0</v>
-      </c>
-      <c r="H99" s="2"/>
+        <v>84575</v>
+      </c>
+      <c r="H99" s="39">
+        <v>21.6</v>
+      </c>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
@@ -9391,7 +9624,7 @@
       <c r="AN99" s="2"/>
       <c r="AO99" s="2"/>
     </row>
-    <row r="100" ht="89.25" customHeight="1">
+    <row r="100" spans="1:41" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="18" t="s">
         <v>472</v>
       </c>
@@ -9411,9 +9644,11 @@
         <v>476</v>
       </c>
       <c r="G100" s="19">
-        <v>62975.0</v>
-      </c>
-      <c r="H100" s="2"/>
+        <v>62975</v>
+      </c>
+      <c r="H100" s="39">
+        <v>16.2</v>
+      </c>
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
@@ -9448,7 +9683,7 @@
       <c r="AN100" s="2"/>
       <c r="AO100" s="2"/>
     </row>
-    <row r="101" ht="91.5" customHeight="1">
+    <row r="101" spans="1:41" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="18" t="s">
         <v>477</v>
       </c>
@@ -9468,9 +9703,11 @@
         <v>480</v>
       </c>
       <c r="G101" s="19">
-        <v>83950.0</v>
-      </c>
-      <c r="H101" s="2"/>
+        <v>83950</v>
+      </c>
+      <c r="H101" s="39">
+        <v>18</v>
+      </c>
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
@@ -9505,7 +9742,7 @@
       <c r="AN101" s="2"/>
       <c r="AO101" s="2"/>
     </row>
-    <row r="102" ht="78.75" customHeight="1">
+    <row r="102" spans="1:41" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="18" t="s">
         <v>481</v>
       </c>
@@ -9525,9 +9762,11 @@
         <v>485</v>
       </c>
       <c r="G102" s="19">
-        <v>137425.0</v>
-      </c>
-      <c r="H102" s="2"/>
+        <v>137425</v>
+      </c>
+      <c r="H102" s="39">
+        <v>26.9</v>
+      </c>
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
@@ -9562,7 +9801,7 @@
       <c r="AN102" s="2"/>
       <c r="AO102" s="2"/>
     </row>
-    <row r="103" ht="52.5" customHeight="1">
+    <row r="103" spans="1:41" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="18" t="s">
         <v>486</v>
       </c>
@@ -9580,9 +9819,9 @@
         <v>490</v>
       </c>
       <c r="G103" s="19">
-        <v>3225.0</v>
-      </c>
-      <c r="H103" s="2"/>
+        <v>3225</v>
+      </c>
+      <c r="H103" s="39"/>
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
@@ -9617,7 +9856,7 @@
       <c r="AN103" s="2"/>
       <c r="AO103" s="2"/>
     </row>
-    <row r="104" ht="37.5" customHeight="1">
+    <row r="104" spans="1:41" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="18" t="s">
         <v>491</v>
       </c>
@@ -9637,9 +9876,11 @@
         <v>490</v>
       </c>
       <c r="G104" s="19">
-        <v>9150.0</v>
-      </c>
-      <c r="H104" s="2"/>
+        <v>9150</v>
+      </c>
+      <c r="H104" s="39">
+        <v>0.35</v>
+      </c>
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
@@ -9674,7 +9915,7 @@
       <c r="AN104" s="2"/>
       <c r="AO104" s="2"/>
     </row>
-    <row r="105" ht="34.5" customHeight="1">
+    <row r="105" spans="1:41" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
         <v>494</v>
       </c>
@@ -9694,9 +9935,11 @@
         <v>490</v>
       </c>
       <c r="G105" s="19">
-        <v>10500.0</v>
-      </c>
-      <c r="H105" s="2"/>
+        <v>10500</v>
+      </c>
+      <c r="H105" s="39">
+        <v>0.61</v>
+      </c>
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
@@ -9731,7 +9974,7 @@
       <c r="AN105" s="2"/>
       <c r="AO105" s="2"/>
     </row>
-    <row r="106" ht="36.75" customHeight="1">
+    <row r="106" spans="1:41" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="18" t="s">
         <v>497</v>
       </c>
@@ -9751,9 +9994,11 @@
         <v>490</v>
       </c>
       <c r="G106" s="19">
-        <v>13100.0</v>
-      </c>
-      <c r="H106" s="2"/>
+        <v>13100</v>
+      </c>
+      <c r="H106" s="39">
+        <v>0.51500000000000001</v>
+      </c>
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
@@ -9788,7 +10033,7 @@
       <c r="AN106" s="2"/>
       <c r="AO106" s="2"/>
     </row>
-    <row r="107" ht="30.75" customHeight="1">
+    <row r="107" spans="1:41" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="18" t="s">
         <v>500</v>
       </c>
@@ -9808,9 +10053,11 @@
         <v>490</v>
       </c>
       <c r="G107" s="19">
-        <v>18900.0</v>
-      </c>
-      <c r="H107" s="2"/>
+        <v>18900</v>
+      </c>
+      <c r="H107" s="39">
+        <v>0.95499999999999996</v>
+      </c>
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
@@ -9845,7 +10092,7 @@
       <c r="AN107" s="2"/>
       <c r="AO107" s="2"/>
     </row>
-    <row r="108" ht="34.5" customHeight="1">
+    <row r="108" spans="1:41" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="18" t="s">
         <v>504</v>
       </c>
@@ -9865,9 +10112,11 @@
         <v>490</v>
       </c>
       <c r="G108" s="19">
-        <v>24450.0</v>
-      </c>
-      <c r="H108" s="2"/>
+        <v>24450</v>
+      </c>
+      <c r="H108" s="39">
+        <v>1.35</v>
+      </c>
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
@@ -9902,7 +10151,7 @@
       <c r="AN108" s="2"/>
       <c r="AO108" s="2"/>
     </row>
-    <row r="109" ht="44.25" customHeight="1">
+    <row r="109" spans="1:41" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="18" t="s">
         <v>508</v>
       </c>
@@ -9922,9 +10171,9 @@
         <v>511</v>
       </c>
       <c r="G109" s="19">
-        <v>16550.0</v>
-      </c>
-      <c r="H109" s="2"/>
+        <v>16550</v>
+      </c>
+      <c r="H109" s="39"/>
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
@@ -9959,7 +10208,7 @@
       <c r="AN109" s="2"/>
       <c r="AO109" s="2"/>
     </row>
-    <row r="110" ht="38.25" customHeight="1">
+    <row r="110" spans="1:41" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="18" t="s">
         <v>512</v>
       </c>
@@ -9979,9 +10228,9 @@
         <v>514</v>
       </c>
       <c r="G110" s="19">
-        <v>30875.0</v>
-      </c>
-      <c r="H110" s="2"/>
+        <v>30875</v>
+      </c>
+      <c r="H110" s="39"/>
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
@@ -10016,7 +10265,7 @@
       <c r="AN110" s="2"/>
       <c r="AO110" s="2"/>
     </row>
-    <row r="111" ht="42.75" customHeight="1">
+    <row r="111" spans="1:41" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="18" t="s">
         <v>515</v>
       </c>
@@ -10036,9 +10285,11 @@
         <v>518</v>
       </c>
       <c r="G111" s="19">
-        <v>6800.0</v>
-      </c>
-      <c r="H111" s="2"/>
+        <v>6800</v>
+      </c>
+      <c r="H111" s="39">
+        <v>0.7</v>
+      </c>
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
@@ -10073,7 +10324,7 @@
       <c r="AN111" s="2"/>
       <c r="AO111" s="2"/>
     </row>
-    <row r="112" ht="44.25" customHeight="1">
+    <row r="112" spans="1:41" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="18" t="s">
         <v>519</v>
       </c>
@@ -10093,9 +10344,11 @@
         <v>522</v>
       </c>
       <c r="G112" s="19">
-        <v>17675.0</v>
-      </c>
-      <c r="H112" s="2"/>
+        <v>17675</v>
+      </c>
+      <c r="H112" s="39">
+        <v>0.95</v>
+      </c>
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
@@ -10130,7 +10383,7 @@
       <c r="AN112" s="2"/>
       <c r="AO112" s="2"/>
     </row>
-    <row r="113" ht="49.5" customHeight="1">
+    <row r="113" spans="1:41" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="18" t="s">
         <v>523</v>
       </c>
@@ -10150,9 +10403,11 @@
         <v>526</v>
       </c>
       <c r="G113" s="19">
-        <v>21375.0</v>
-      </c>
-      <c r="H113" s="2"/>
+        <v>21375</v>
+      </c>
+      <c r="H113" s="39">
+        <v>1.8</v>
+      </c>
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
@@ -10187,7 +10442,7 @@
       <c r="AN113" s="2"/>
       <c r="AO113" s="2"/>
     </row>
-    <row r="114" ht="38.25" customHeight="1">
+    <row r="114" spans="1:41" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="18" t="s">
         <v>527</v>
       </c>
@@ -10205,9 +10460,9 @@
       </c>
       <c r="F114" s="8"/>
       <c r="G114" s="19">
-        <v>3475.0</v>
-      </c>
-      <c r="H114" s="2"/>
+        <v>3475</v>
+      </c>
+      <c r="H114" s="39"/>
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
@@ -10242,7 +10497,7 @@
       <c r="AN114" s="2"/>
       <c r="AO114" s="2"/>
     </row>
-    <row r="115" ht="27.0" customHeight="1">
+    <row r="115" spans="1:41" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="18" t="s">
         <v>532</v>
       </c>
@@ -10260,9 +10515,9 @@
       </c>
       <c r="F115" s="33"/>
       <c r="G115" s="19">
-        <v>4325.0</v>
-      </c>
-      <c r="H115" s="2"/>
+        <v>4325</v>
+      </c>
+      <c r="H115" s="39"/>
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
@@ -10297,7 +10552,7 @@
       <c r="AN115" s="2"/>
       <c r="AO115" s="2"/>
     </row>
-    <row r="116" ht="33.0" customHeight="1">
+    <row r="116" spans="1:41" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="18" t="s">
         <v>534</v>
       </c>
@@ -10315,9 +10570,9 @@
       </c>
       <c r="F116" s="33"/>
       <c r="G116" s="19">
-        <v>5325.0</v>
-      </c>
-      <c r="H116" s="2"/>
+        <v>5325</v>
+      </c>
+      <c r="H116" s="39"/>
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
@@ -10352,7 +10607,7 @@
       <c r="AN116" s="2"/>
       <c r="AO116" s="2"/>
     </row>
-    <row r="117" ht="36.0" customHeight="1">
+    <row r="117" spans="1:41" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="18" t="s">
         <v>537</v>
       </c>
@@ -10370,9 +10625,9 @@
       </c>
       <c r="F117" s="33"/>
       <c r="G117" s="19">
-        <v>7550.0</v>
-      </c>
-      <c r="H117" s="2"/>
+        <v>7550</v>
+      </c>
+      <c r="H117" s="39"/>
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
@@ -10407,7 +10662,7 @@
       <c r="AN117" s="2"/>
       <c r="AO117" s="2"/>
     </row>
-    <row r="118" ht="39.75" customHeight="1">
+    <row r="118" spans="1:41" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="18" t="s">
         <v>541</v>
       </c>
@@ -10425,9 +10680,9 @@
       </c>
       <c r="F118" s="33"/>
       <c r="G118" s="19">
-        <v>2225.0</v>
-      </c>
-      <c r="H118" s="2"/>
+        <v>2225</v>
+      </c>
+      <c r="H118" s="39"/>
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
@@ -10462,7 +10717,7 @@
       <c r="AN118" s="2"/>
       <c r="AO118" s="2"/>
     </row>
-    <row r="119" ht="42.0" customHeight="1">
+    <row r="119" spans="1:41" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="18" t="s">
         <v>545</v>
       </c>
@@ -10480,9 +10735,9 @@
       </c>
       <c r="F119" s="33"/>
       <c r="G119" s="19">
-        <v>9150.0</v>
-      </c>
-      <c r="H119" s="2"/>
+        <v>9150</v>
+      </c>
+      <c r="H119" s="39"/>
       <c r="I119" s="2"/>
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
@@ -10517,7 +10772,7 @@
       <c r="AN119" s="2"/>
       <c r="AO119" s="2"/>
     </row>
-    <row r="120" ht="48.0" customHeight="1">
+    <row r="120" spans="1:41" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="18" t="s">
         <v>549</v>
       </c>
@@ -10535,9 +10790,9 @@
       </c>
       <c r="F120" s="33"/>
       <c r="G120" s="19">
-        <v>12725.0</v>
-      </c>
-      <c r="H120" s="2"/>
+        <v>12725</v>
+      </c>
+      <c r="H120" s="39"/>
       <c r="I120" s="2"/>
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
@@ -10572,7 +10827,7 @@
       <c r="AN120" s="2"/>
       <c r="AO120" s="2"/>
     </row>
-    <row r="121" ht="31.5" customHeight="1">
+    <row r="121" spans="1:41" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="18" t="s">
         <v>553</v>
       </c>
@@ -10590,9 +10845,9 @@
       </c>
       <c r="F121" s="33"/>
       <c r="G121" s="19">
-        <v>7175.0</v>
-      </c>
-      <c r="H121" s="2"/>
+        <v>7175</v>
+      </c>
+      <c r="H121" s="39"/>
       <c r="I121" s="2"/>
       <c r="J121" s="2"/>
       <c r="K121" s="2"/>
@@ -10627,7 +10882,7 @@
       <c r="AN121" s="2"/>
       <c r="AO121" s="2"/>
     </row>
-    <row r="122" ht="29.25" customHeight="1">
+    <row r="122" spans="1:41" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="18" t="s">
         <v>558</v>
       </c>
@@ -10647,9 +10902,11 @@
         <v>563</v>
       </c>
       <c r="G122" s="19">
-        <v>5325.0</v>
-      </c>
-      <c r="H122" s="2"/>
+        <v>5325</v>
+      </c>
+      <c r="H122" s="39">
+        <v>1.2</v>
+      </c>
       <c r="I122" s="2"/>
       <c r="J122" s="2"/>
       <c r="K122" s="2"/>
@@ -10684,7 +10941,7 @@
       <c r="AN122" s="2"/>
       <c r="AO122" s="2"/>
     </row>
-    <row r="123" ht="32.25" customHeight="1">
+    <row r="123" spans="1:41" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="34" t="s">
         <v>564</v>
       </c>
@@ -10704,9 +10961,11 @@
         <v>568</v>
       </c>
       <c r="G123" s="35">
-        <v>6925.0</v>
-      </c>
-      <c r="H123" s="2"/>
+        <v>6925</v>
+      </c>
+      <c r="H123" s="39">
+        <v>1.3</v>
+      </c>
       <c r="I123" s="2"/>
       <c r="J123" s="2"/>
       <c r="K123" s="2"/>
@@ -10741,7 +11000,7 @@
       <c r="AN123" s="2"/>
       <c r="AO123" s="2"/>
     </row>
-    <row r="124" ht="47.25" customHeight="1">
+    <row r="124" spans="1:41" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="34" t="s">
         <v>569</v>
       </c>
@@ -10761,9 +11020,11 @@
         <v>572</v>
       </c>
       <c r="G124" s="35">
-        <v>8650.0</v>
-      </c>
-      <c r="H124" s="2"/>
+        <v>8650</v>
+      </c>
+      <c r="H124" s="39">
+        <v>1.65</v>
+      </c>
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
@@ -10798,7 +11059,7 @@
       <c r="AN124" s="2"/>
       <c r="AO124" s="2"/>
     </row>
-    <row r="125" ht="45.0" customHeight="1">
+    <row r="125" spans="1:41" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="34" t="s">
         <v>573</v>
       </c>
@@ -10818,9 +11079,11 @@
         <v>577</v>
       </c>
       <c r="G125" s="35">
-        <v>12600.0</v>
-      </c>
-      <c r="H125" s="2"/>
+        <v>12600</v>
+      </c>
+      <c r="H125" s="39">
+        <v>3</v>
+      </c>
       <c r="I125" s="2"/>
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
@@ -10855,7 +11118,7 @@
       <c r="AN125" s="2"/>
       <c r="AO125" s="2"/>
     </row>
-    <row r="126" ht="45.75" customHeight="1">
+    <row r="126" spans="1:41" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="34" t="s">
         <v>578</v>
       </c>
@@ -10875,9 +11138,9 @@
         <v>583</v>
       </c>
       <c r="G126" s="19">
-        <v>8400.0</v>
-      </c>
-      <c r="H126" s="2"/>
+        <v>8400</v>
+      </c>
+      <c r="H126" s="39"/>
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
@@ -10912,7 +11175,7 @@
       <c r="AN126" s="2"/>
       <c r="AO126" s="2"/>
     </row>
-    <row r="127" ht="48.0" customHeight="1">
+    <row r="127" spans="1:41" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="34" t="s">
         <v>584</v>
       </c>
@@ -10932,9 +11195,11 @@
         <v>587</v>
       </c>
       <c r="G127" s="35">
-        <v>10125.0</v>
-      </c>
-      <c r="H127" s="2"/>
+        <v>10125</v>
+      </c>
+      <c r="H127" s="39">
+        <v>2</v>
+      </c>
       <c r="I127" s="2"/>
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
@@ -10969,7 +11234,7 @@
       <c r="AN127" s="2"/>
       <c r="AO127" s="2"/>
     </row>
-    <row r="128" ht="33.0" customHeight="1">
+    <row r="128" spans="1:41" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="34" t="s">
         <v>588</v>
       </c>
@@ -10989,9 +11254,11 @@
         <v>591</v>
       </c>
       <c r="G128" s="35">
-        <v>11125.0</v>
-      </c>
-      <c r="H128" s="2"/>
+        <v>11125</v>
+      </c>
+      <c r="H128" s="39">
+        <v>2</v>
+      </c>
       <c r="I128" s="2"/>
       <c r="J128" s="2"/>
       <c r="K128" s="2"/>
@@ -11026,7 +11293,7 @@
       <c r="AN128" s="2"/>
       <c r="AO128" s="2"/>
     </row>
-    <row r="129" ht="43.5" customHeight="1">
+    <row r="129" spans="1:41" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="34" t="s">
         <v>592</v>
       </c>
@@ -11046,9 +11313,11 @@
         <v>596</v>
       </c>
       <c r="G129" s="35">
-        <v>10375.0</v>
-      </c>
-      <c r="H129" s="2"/>
+        <v>10375</v>
+      </c>
+      <c r="H129" s="39">
+        <v>1.8</v>
+      </c>
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
       <c r="K129" s="2"/>
@@ -11083,7 +11352,7 @@
       <c r="AN129" s="2"/>
       <c r="AO129" s="2"/>
     </row>
-    <row r="130" ht="60.75" customHeight="1">
+    <row r="130" spans="1:41" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="34" t="s">
         <v>597</v>
       </c>
@@ -11103,9 +11372,11 @@
         <v>599</v>
       </c>
       <c r="G130" s="35">
-        <v>11125.0</v>
-      </c>
-      <c r="H130" s="2"/>
+        <v>11125</v>
+      </c>
+      <c r="H130" s="39">
+        <v>1.8</v>
+      </c>
       <c r="I130" s="2"/>
       <c r="J130" s="2"/>
       <c r="K130" s="2"/>
@@ -11140,7 +11411,7 @@
       <c r="AN130" s="2"/>
       <c r="AO130" s="2"/>
     </row>
-    <row r="131" ht="39.75" customHeight="1">
+    <row r="131" spans="1:41" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="34" t="s">
         <v>600</v>
       </c>
@@ -11160,9 +11431,11 @@
         <v>604</v>
       </c>
       <c r="G131" s="19">
-        <v>17175.0</v>
-      </c>
-      <c r="H131" s="2"/>
+        <v>17175</v>
+      </c>
+      <c r="H131" s="39">
+        <v>2.5</v>
+      </c>
       <c r="I131" s="2"/>
       <c r="J131" s="2"/>
       <c r="K131" s="2"/>
@@ -11197,7 +11470,7 @@
       <c r="AN131" s="2"/>
       <c r="AO131" s="2"/>
     </row>
-    <row r="132" ht="90.0" customHeight="1">
+    <row r="132" spans="1:41" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="34" t="s">
         <v>605</v>
       </c>
@@ -11217,9 +11490,9 @@
         <v>610</v>
       </c>
       <c r="G132" s="35">
-        <v>136050.0</v>
-      </c>
-      <c r="H132" s="2"/>
+        <v>136050</v>
+      </c>
+      <c r="H132" s="39"/>
       <c r="I132" s="2"/>
       <c r="J132" s="2"/>
       <c r="K132" s="2"/>
@@ -11254,7 +11527,7 @@
       <c r="AN132" s="2"/>
       <c r="AO132" s="2"/>
     </row>
-    <row r="133" ht="37.5" customHeight="1">
+    <row r="133" spans="1:41" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="34" t="s">
         <v>611</v>
       </c>
@@ -11274,9 +11547,11 @@
         <v>616</v>
       </c>
       <c r="G133" s="35">
-        <v>22175.0</v>
-      </c>
-      <c r="H133" s="2"/>
+        <v>22175</v>
+      </c>
+      <c r="H133" s="39">
+        <v>2.8</v>
+      </c>
       <c r="I133" s="2"/>
       <c r="J133" s="2"/>
       <c r="K133" s="2"/>
@@ -11311,7 +11586,7 @@
       <c r="AN133" s="2"/>
       <c r="AO133" s="2"/>
     </row>
-    <row r="134" ht="46.5" customHeight="1">
+    <row r="134" spans="1:41" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="34" t="s">
         <v>617</v>
       </c>
@@ -11319,7 +11594,7 @@
         <v>612</v>
       </c>
       <c r="C134" s="34">
-        <v>6.11253704E8</v>
+        <v>611253704</v>
       </c>
       <c r="D134" s="34" t="s">
         <v>602</v>
@@ -11331,9 +11606,9 @@
         <v>619</v>
       </c>
       <c r="G134" s="35">
-        <v>28150.0</v>
-      </c>
-      <c r="H134" s="2"/>
+        <v>28150</v>
+      </c>
+      <c r="H134" s="39"/>
       <c r="I134" s="2"/>
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
@@ -11368,7 +11643,7 @@
       <c r="AN134" s="2"/>
       <c r="AO134" s="2"/>
     </row>
-    <row r="135" ht="42.75" customHeight="1">
+    <row r="135" spans="1:41" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="34" t="s">
         <v>620</v>
       </c>
@@ -11388,9 +11663,11 @@
         <v>624</v>
       </c>
       <c r="G135" s="35">
-        <v>33350.0</v>
-      </c>
-      <c r="H135" s="2"/>
+        <v>33350</v>
+      </c>
+      <c r="H135" s="39">
+        <v>3.1</v>
+      </c>
       <c r="I135" s="2"/>
       <c r="J135" s="2"/>
       <c r="K135" s="2"/>
@@ -11425,7 +11702,7 @@
       <c r="AN135" s="2"/>
       <c r="AO135" s="2"/>
     </row>
-    <row r="136" ht="36.0" customHeight="1">
+    <row r="136" spans="1:41" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="34" t="s">
         <v>625</v>
       </c>
@@ -11445,9 +11722,11 @@
         <v>628</v>
       </c>
       <c r="G136" s="35">
-        <v>39275.0</v>
-      </c>
-      <c r="H136" s="2"/>
+        <v>39275</v>
+      </c>
+      <c r="H136" s="39">
+        <v>3.6</v>
+      </c>
       <c r="I136" s="2"/>
       <c r="J136" s="2"/>
       <c r="K136" s="2"/>
@@ -11482,7 +11761,7 @@
       <c r="AN136" s="2"/>
       <c r="AO136" s="2"/>
     </row>
-    <row r="137" ht="46.5" customHeight="1">
+    <row r="137" spans="1:41" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="34" t="s">
         <v>629</v>
       </c>
@@ -11502,9 +11781,11 @@
         <v>633</v>
       </c>
       <c r="G137" s="35">
-        <v>50375.0</v>
-      </c>
-      <c r="H137" s="2"/>
+        <v>50375</v>
+      </c>
+      <c r="H137" s="39">
+        <v>4.7</v>
+      </c>
       <c r="I137" s="2"/>
       <c r="J137" s="2"/>
       <c r="K137" s="2"/>
@@ -11539,7 +11820,7 @@
       <c r="AN137" s="2"/>
       <c r="AO137" s="2"/>
     </row>
-    <row r="138" ht="60.0" customHeight="1">
+    <row r="138" spans="1:41" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="34" t="s">
         <v>634</v>
       </c>
@@ -11559,9 +11840,11 @@
         <v>638</v>
       </c>
       <c r="G138" s="35">
-        <v>65450.0</v>
-      </c>
-      <c r="H138" s="2"/>
+        <v>65450</v>
+      </c>
+      <c r="H138" s="39">
+        <v>6.8</v>
+      </c>
       <c r="I138" s="2"/>
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
@@ -11596,7 +11879,7 @@
       <c r="AN138" s="2"/>
       <c r="AO138" s="2"/>
     </row>
-    <row r="139" ht="60.75" customHeight="1">
+    <row r="139" spans="1:41" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="34" t="s">
         <v>639</v>
       </c>
@@ -11616,9 +11899,11 @@
         <v>643</v>
       </c>
       <c r="G139" s="35">
-        <v>110625.0</v>
-      </c>
-      <c r="H139" s="2"/>
+        <v>110625</v>
+      </c>
+      <c r="H139" s="39">
+        <v>8.5</v>
+      </c>
       <c r="I139" s="2"/>
       <c r="J139" s="2"/>
       <c r="K139" s="2"/>
@@ -11653,7 +11938,7 @@
       <c r="AN139" s="2"/>
       <c r="AO139" s="2"/>
     </row>
-    <row r="140" ht="44.25" customHeight="1">
+    <row r="140" spans="1:41" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="34" t="s">
         <v>644</v>
       </c>
@@ -11673,9 +11958,11 @@
         <v>647</v>
       </c>
       <c r="G140" s="35">
-        <v>115825.0</v>
-      </c>
-      <c r="H140" s="2"/>
+        <v>115825</v>
+      </c>
+      <c r="H140" s="39">
+        <v>8.5</v>
+      </c>
       <c r="I140" s="2"/>
       <c r="J140" s="2"/>
       <c r="K140" s="2"/>
@@ -11710,7 +11997,7 @@
       <c r="AN140" s="2"/>
       <c r="AO140" s="2"/>
     </row>
-    <row r="141" ht="62.25" customHeight="1">
+    <row r="141" spans="1:41" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="34" t="s">
         <v>648</v>
       </c>
@@ -11718,7 +12005,7 @@
         <v>649</v>
       </c>
       <c r="C141" s="34">
-        <v>6.11320703E8</v>
+        <v>611320703</v>
       </c>
       <c r="D141" s="34" t="s">
         <v>138</v>
@@ -11730,9 +12017,11 @@
         <v>651</v>
       </c>
       <c r="G141" s="35">
-        <v>48900.0</v>
-      </c>
-      <c r="H141" s="2"/>
+        <v>48900</v>
+      </c>
+      <c r="H141" s="39">
+        <v>3.7</v>
+      </c>
       <c r="I141" s="2"/>
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
@@ -11767,7 +12056,7 @@
       <c r="AN141" s="2"/>
       <c r="AO141" s="2"/>
     </row>
-    <row r="142" ht="41.25" customHeight="1">
+    <row r="142" spans="1:41" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="34" t="s">
         <v>652</v>
       </c>
@@ -11787,9 +12076,11 @@
         <v>655</v>
       </c>
       <c r="G142" s="35">
-        <v>41500.0</v>
-      </c>
-      <c r="H142" s="2"/>
+        <v>41500</v>
+      </c>
+      <c r="H142" s="39">
+        <v>5.6</v>
+      </c>
       <c r="I142" s="2"/>
       <c r="J142" s="2"/>
       <c r="K142" s="2"/>
@@ -11824,7 +12115,7 @@
       <c r="AN142" s="2"/>
       <c r="AO142" s="2"/>
     </row>
-    <row r="143" ht="57.0" customHeight="1">
+    <row r="143" spans="1:41" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="34" t="s">
         <v>656</v>
       </c>
@@ -11844,9 +12135,11 @@
         <v>659</v>
       </c>
       <c r="G143" s="35">
-        <v>69150.0</v>
-      </c>
-      <c r="H143" s="2"/>
+        <v>69150</v>
+      </c>
+      <c r="H143" s="39">
+        <v>10.199999999999999</v>
+      </c>
       <c r="I143" s="2"/>
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
@@ -11881,7 +12174,7 @@
       <c r="AN143" s="2"/>
       <c r="AO143" s="2"/>
     </row>
-    <row r="144" ht="51.0" customHeight="1">
+    <row r="144" spans="1:41" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="34" t="s">
         <v>660</v>
       </c>
@@ -11901,9 +12194,11 @@
         <v>665</v>
       </c>
       <c r="G144" s="35">
-        <v>114825.0</v>
-      </c>
-      <c r="H144" s="2"/>
+        <v>114825</v>
+      </c>
+      <c r="H144" s="39">
+        <v>14.6</v>
+      </c>
       <c r="I144" s="2"/>
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
@@ -11938,7 +12233,7 @@
       <c r="AN144" s="2"/>
       <c r="AO144" s="2"/>
     </row>
-    <row r="145" ht="66.0" customHeight="1">
+    <row r="145" spans="1:41" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="34" t="s">
         <v>666</v>
       </c>
@@ -11958,9 +12253,11 @@
         <v>669</v>
       </c>
       <c r="G145" s="35">
-        <v>138275.0</v>
-      </c>
-      <c r="H145" s="2"/>
+        <v>138275</v>
+      </c>
+      <c r="H145" s="39">
+        <v>16.5</v>
+      </c>
       <c r="I145" s="2"/>
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
@@ -11995,7 +12292,7 @@
       <c r="AN145" s="2"/>
       <c r="AO145" s="2"/>
     </row>
-    <row r="146" ht="52.5" customHeight="1">
+    <row r="146" spans="1:41" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="34" t="s">
         <v>670</v>
       </c>
@@ -12015,9 +12312,11 @@
         <v>206</v>
       </c>
       <c r="G146" s="35">
-        <v>214825.0</v>
-      </c>
-      <c r="H146" s="2"/>
+        <v>214825</v>
+      </c>
+      <c r="H146" s="39">
+        <v>29.1</v>
+      </c>
       <c r="I146" s="2"/>
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
@@ -12052,7 +12351,7 @@
       <c r="AN146" s="2"/>
       <c r="AO146" s="2"/>
     </row>
-    <row r="147" ht="35.25" customHeight="1">
+    <row r="147" spans="1:41" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="34" t="s">
         <v>674</v>
       </c>
@@ -12072,9 +12371,9 @@
         <v>678</v>
       </c>
       <c r="G147" s="35">
-        <v>6800.0</v>
-      </c>
-      <c r="H147" s="2"/>
+        <v>6800</v>
+      </c>
+      <c r="H147" s="39"/>
       <c r="I147" s="2"/>
       <c r="J147" s="2"/>
       <c r="K147" s="2"/>
@@ -12109,7 +12408,7 @@
       <c r="AN147" s="2"/>
       <c r="AO147" s="2"/>
     </row>
-    <row r="148" ht="41.25" customHeight="1">
+    <row r="148" spans="1:41" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="34" t="s">
         <v>679</v>
       </c>
@@ -12129,9 +12428,11 @@
         <v>682</v>
       </c>
       <c r="G148" s="35">
-        <v>7050.0</v>
-      </c>
-      <c r="H148" s="2"/>
+        <v>7050</v>
+      </c>
+      <c r="H148" s="39">
+        <v>1.8</v>
+      </c>
       <c r="I148" s="2"/>
       <c r="J148" s="2"/>
       <c r="K148" s="2"/>
@@ -12166,7 +12467,7 @@
       <c r="AN148" s="2"/>
       <c r="AO148" s="2"/>
     </row>
-    <row r="149" ht="39.75" customHeight="1">
+    <row r="149" spans="1:41" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="34" t="s">
         <v>683</v>
       </c>
@@ -12186,9 +12487,11 @@
         <v>686</v>
       </c>
       <c r="G149" s="35">
-        <v>8150.0</v>
-      </c>
-      <c r="H149" s="2"/>
+        <v>8150</v>
+      </c>
+      <c r="H149" s="39">
+        <v>1.8</v>
+      </c>
       <c r="I149" s="2"/>
       <c r="J149" s="2"/>
       <c r="K149" s="2"/>
@@ -12223,7 +12526,7 @@
       <c r="AN149" s="2"/>
       <c r="AO149" s="2"/>
     </row>
-    <row r="150" ht="37.5" customHeight="1">
+    <row r="150" spans="1:41" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="34" t="s">
         <v>687</v>
       </c>
@@ -12243,9 +12546,9 @@
         <v>690</v>
       </c>
       <c r="G150" s="35">
-        <v>9275.0</v>
-      </c>
-      <c r="H150" s="2"/>
+        <v>9275</v>
+      </c>
+      <c r="H150" s="39"/>
       <c r="I150" s="2"/>
       <c r="J150" s="2"/>
       <c r="K150" s="2"/>
@@ -12280,7 +12583,7 @@
       <c r="AN150" s="2"/>
       <c r="AO150" s="2"/>
     </row>
-    <row r="151" ht="40.5" customHeight="1">
+    <row r="151" spans="1:41" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="34" t="s">
         <v>691</v>
       </c>
@@ -12300,9 +12603,9 @@
         <v>694</v>
       </c>
       <c r="G151" s="35">
-        <v>10625.0</v>
-      </c>
-      <c r="H151" s="2"/>
+        <v>10625</v>
+      </c>
+      <c r="H151" s="39"/>
       <c r="I151" s="2"/>
       <c r="J151" s="2"/>
       <c r="K151" s="2"/>
@@ -12337,7 +12640,7 @@
       <c r="AN151" s="2"/>
       <c r="AO151" s="2"/>
     </row>
-    <row r="152" ht="39.0" customHeight="1">
+    <row r="152" spans="1:41" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="34" t="s">
         <v>695</v>
       </c>
@@ -12357,9 +12660,9 @@
         <v>690</v>
       </c>
       <c r="G152" s="35">
-        <v>9525.0</v>
-      </c>
-      <c r="H152" s="2"/>
+        <v>9525</v>
+      </c>
+      <c r="H152" s="39"/>
       <c r="I152" s="2"/>
       <c r="J152" s="2"/>
       <c r="K152" s="2"/>
@@ -12394,7 +12697,7 @@
       <c r="AN152" s="2"/>
       <c r="AO152" s="2"/>
     </row>
-    <row r="153" ht="39.0" customHeight="1">
+    <row r="153" spans="1:41" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="34" t="s">
         <v>698</v>
       </c>
@@ -12414,9 +12717,9 @@
         <v>701</v>
       </c>
       <c r="G153" s="35">
-        <v>12600.0</v>
-      </c>
-      <c r="H153" s="2"/>
+        <v>12600</v>
+      </c>
+      <c r="H153" s="39"/>
       <c r="I153" s="2"/>
       <c r="J153" s="2"/>
       <c r="K153" s="2"/>
@@ -12451,7 +12754,7 @@
       <c r="AN153" s="2"/>
       <c r="AO153" s="2"/>
     </row>
-    <row r="154" ht="52.5" customHeight="1">
+    <row r="154" spans="1:41" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="34" t="s">
         <v>702</v>
       </c>
@@ -12471,9 +12774,9 @@
         <v>705</v>
       </c>
       <c r="G154" s="35">
-        <v>16250.0</v>
-      </c>
-      <c r="H154" s="2"/>
+        <v>16250</v>
+      </c>
+      <c r="H154" s="39"/>
       <c r="I154" s="2"/>
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
@@ -12508,7 +12811,7 @@
       <c r="AN154" s="2"/>
       <c r="AO154" s="2"/>
     </row>
-    <row r="155" ht="45.0" customHeight="1">
+    <row r="155" spans="1:41" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="34" t="s">
         <v>706</v>
       </c>
@@ -12528,9 +12831,11 @@
         <v>711</v>
       </c>
       <c r="G155" s="35">
-        <v>17050.0</v>
-      </c>
-      <c r="H155" s="2"/>
+        <v>17050</v>
+      </c>
+      <c r="H155" s="39">
+        <v>5</v>
+      </c>
       <c r="I155" s="2"/>
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
@@ -12565,7 +12870,7 @@
       <c r="AN155" s="2"/>
       <c r="AO155" s="2"/>
     </row>
-    <row r="156" ht="47.25" customHeight="1">
+    <row r="156" spans="1:41" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="34" t="s">
         <v>712</v>
       </c>
@@ -12585,9 +12890,11 @@
         <v>711</v>
       </c>
       <c r="G156" s="19">
-        <v>4325.0</v>
-      </c>
-      <c r="H156" s="2"/>
+        <v>4325</v>
+      </c>
+      <c r="H156" s="39">
+        <v>5</v>
+      </c>
       <c r="I156" s="2"/>
       <c r="J156" s="2"/>
       <c r="K156" s="2"/>
@@ -12622,7 +12929,7 @@
       <c r="AN156" s="2"/>
       <c r="AO156" s="2"/>
     </row>
-    <row r="157" ht="45.0" customHeight="1">
+    <row r="157" spans="1:41" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="34" t="s">
         <v>715</v>
       </c>
@@ -12642,9 +12949,9 @@
         <v>719</v>
       </c>
       <c r="G157" s="35">
-        <v>23350.0</v>
-      </c>
-      <c r="H157" s="2"/>
+        <v>23350</v>
+      </c>
+      <c r="H157" s="39"/>
       <c r="I157" s="2"/>
       <c r="J157" s="2"/>
       <c r="K157" s="2"/>
@@ -12679,7 +12986,7 @@
       <c r="AN157" s="2"/>
       <c r="AO157" s="2"/>
     </row>
-    <row r="158" ht="47.25" customHeight="1">
+    <row r="158" spans="1:41" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="34" t="s">
         <v>720</v>
       </c>
@@ -12699,9 +13006,11 @@
         <v>725</v>
       </c>
       <c r="G158" s="35">
-        <v>13975.0</v>
-      </c>
-      <c r="H158" s="2"/>
+        <v>13975</v>
+      </c>
+      <c r="H158" s="39">
+        <v>1.5</v>
+      </c>
       <c r="I158" s="2"/>
       <c r="J158" s="2"/>
       <c r="K158" s="2"/>
@@ -12736,7 +13045,7 @@
       <c r="AN158" s="2"/>
       <c r="AO158" s="2"/>
     </row>
-    <row r="159" ht="36.75" customHeight="1">
+    <row r="159" spans="1:41" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="34" t="s">
         <v>726</v>
       </c>
@@ -12756,9 +13065,11 @@
         <v>729</v>
       </c>
       <c r="G159" s="35">
-        <v>15075.0</v>
-      </c>
-      <c r="H159" s="2"/>
+        <v>15075</v>
+      </c>
+      <c r="H159" s="39">
+        <v>1.5</v>
+      </c>
       <c r="I159" s="2"/>
       <c r="J159" s="2"/>
       <c r="K159" s="2"/>
@@ -12793,7 +13104,7 @@
       <c r="AN159" s="2"/>
       <c r="AO159" s="2"/>
     </row>
-    <row r="160" ht="49.5" customHeight="1">
+    <row r="160" spans="1:41" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="34" t="s">
         <v>730</v>
       </c>
@@ -12813,9 +13124,11 @@
         <v>735</v>
       </c>
       <c r="G160" s="35">
-        <v>14200.0</v>
-      </c>
-      <c r="H160" s="2"/>
+        <v>14200</v>
+      </c>
+      <c r="H160" s="39">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="I160" s="2"/>
       <c r="J160" s="2"/>
       <c r="K160" s="2"/>
@@ -12850,7 +13163,7 @@
       <c r="AN160" s="2"/>
       <c r="AO160" s="2"/>
     </row>
-    <row r="161" ht="58.5" customHeight="1">
+    <row r="161" spans="1:41" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="34" t="s">
         <v>736</v>
       </c>
@@ -12870,9 +13183,11 @@
         <v>739</v>
       </c>
       <c r="G161" s="35">
-        <v>25700.0</v>
-      </c>
-      <c r="H161" s="2"/>
+        <v>25700</v>
+      </c>
+      <c r="H161" s="39">
+        <v>2.5</v>
+      </c>
       <c r="I161" s="2"/>
       <c r="J161" s="2"/>
       <c r="K161" s="2"/>
@@ -12907,7 +13222,7 @@
       <c r="AN161" s="2"/>
       <c r="AO161" s="2"/>
     </row>
-    <row r="162" ht="59.25" customHeight="1">
+    <row r="162" spans="1:41" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="34" t="s">
         <v>740</v>
       </c>
@@ -12927,9 +13242,11 @@
         <v>743</v>
       </c>
       <c r="G162" s="35">
-        <v>13475.0</v>
-      </c>
-      <c r="H162" s="2"/>
+        <v>13475</v>
+      </c>
+      <c r="H162" s="39">
+        <v>1.4</v>
+      </c>
       <c r="I162" s="2"/>
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
@@ -12964,7 +13281,7 @@
       <c r="AN162" s="2"/>
       <c r="AO162" s="2"/>
     </row>
-    <row r="163" ht="55.5" customHeight="1">
+    <row r="163" spans="1:41" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="34" t="s">
         <v>744</v>
       </c>
@@ -12982,9 +13299,11 @@
         <v>748</v>
       </c>
       <c r="G163" s="35">
-        <v>9650.0</v>
-      </c>
-      <c r="H163" s="2"/>
+        <v>9650</v>
+      </c>
+      <c r="H163" s="39">
+        <v>0.36</v>
+      </c>
       <c r="I163" s="2"/>
       <c r="J163" s="2"/>
       <c r="K163" s="2"/>
@@ -13019,7 +13338,7 @@
       <c r="AN163" s="2"/>
       <c r="AO163" s="2"/>
     </row>
-    <row r="164" ht="55.5" customHeight="1">
+    <row r="164" spans="1:41" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="34" t="s">
         <v>749</v>
       </c>
@@ -13039,9 +13358,11 @@
         <v>753</v>
       </c>
       <c r="G164" s="35">
-        <v>19525.0</v>
-      </c>
-      <c r="H164" s="2"/>
+        <v>19525</v>
+      </c>
+      <c r="H164" s="39">
+        <v>3.7</v>
+      </c>
       <c r="I164" s="2"/>
       <c r="J164" s="2"/>
       <c r="K164" s="2"/>
@@ -13076,7 +13397,7 @@
       <c r="AN164" s="2"/>
       <c r="AO164" s="2"/>
     </row>
-    <row r="165" ht="50.25" customHeight="1">
+    <row r="165" spans="1:41" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="34" t="s">
         <v>754</v>
       </c>
@@ -13096,9 +13417,11 @@
         <v>758</v>
       </c>
       <c r="G165" s="35">
-        <v>21750.0</v>
-      </c>
-      <c r="H165" s="2"/>
+        <v>21750</v>
+      </c>
+      <c r="H165" s="39">
+        <v>4.7</v>
+      </c>
       <c r="I165" s="2"/>
       <c r="J165" s="2"/>
       <c r="K165" s="2"/>
@@ -13133,7 +13456,7 @@
       <c r="AN165" s="2"/>
       <c r="AO165" s="2"/>
     </row>
-    <row r="166" ht="54.75" customHeight="1">
+    <row r="166" spans="1:41" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="34" t="s">
         <v>759</v>
       </c>
@@ -13153,9 +13476,11 @@
         <v>764</v>
       </c>
       <c r="G166" s="35">
-        <v>20125.0</v>
-      </c>
-      <c r="H166" s="2"/>
+        <v>20125</v>
+      </c>
+      <c r="H166" s="39">
+        <v>2.6</v>
+      </c>
       <c r="I166" s="2"/>
       <c r="J166" s="2"/>
       <c r="K166" s="2"/>
@@ -13190,7 +13515,7 @@
       <c r="AN166" s="2"/>
       <c r="AO166" s="2"/>
     </row>
-    <row r="167" ht="60.75" customHeight="1">
+    <row r="167" spans="1:41" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="34" t="s">
         <v>765</v>
       </c>
@@ -13210,9 +13535,11 @@
         <v>769</v>
       </c>
       <c r="G167" s="35">
-        <v>15575.0</v>
-      </c>
-      <c r="H167" s="2"/>
+        <v>15575</v>
+      </c>
+      <c r="H167" s="39">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="I167" s="2"/>
       <c r="J167" s="2"/>
       <c r="K167" s="2"/>
@@ -13247,7 +13574,7 @@
       <c r="AN167" s="2"/>
       <c r="AO167" s="2"/>
     </row>
-    <row r="168" ht="50.25" customHeight="1">
+    <row r="168" spans="1:41" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="34" t="s">
         <v>770</v>
       </c>
@@ -13267,9 +13594,11 @@
         <v>774</v>
       </c>
       <c r="G168" s="35">
-        <v>22600.0</v>
-      </c>
-      <c r="H168" s="2"/>
+        <v>22600</v>
+      </c>
+      <c r="H168" s="39">
+        <v>7.6</v>
+      </c>
       <c r="I168" s="2"/>
       <c r="J168" s="2"/>
       <c r="K168" s="2"/>
@@ -13304,7 +13633,7 @@
       <c r="AN168" s="2"/>
       <c r="AO168" s="2"/>
     </row>
-    <row r="169" ht="54.0" customHeight="1">
+    <row r="169" spans="1:41" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="34" t="s">
         <v>775</v>
       </c>
@@ -13324,9 +13653,9 @@
         <v>779</v>
       </c>
       <c r="G169" s="35">
-        <v>7800.0</v>
-      </c>
-      <c r="H169" s="2"/>
+        <v>7800</v>
+      </c>
+      <c r="H169" s="39"/>
       <c r="I169" s="2"/>
       <c r="J169" s="2"/>
       <c r="K169" s="2"/>
@@ -13361,7 +13690,7 @@
       <c r="AN169" s="2"/>
       <c r="AO169" s="2"/>
     </row>
-    <row r="170" ht="54.0" customHeight="1">
+    <row r="170" spans="1:41" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="18" t="s">
         <v>780</v>
       </c>
@@ -13381,9 +13710,11 @@
         <v>784</v>
       </c>
       <c r="G170" s="35">
-        <v>11875.0</v>
-      </c>
-      <c r="H170" s="2"/>
+        <v>11875</v>
+      </c>
+      <c r="H170" s="39">
+        <v>1.3</v>
+      </c>
       <c r="I170" s="2"/>
       <c r="J170" s="2"/>
       <c r="K170" s="2"/>
@@ -13418,7 +13749,7 @@
       <c r="AN170" s="2"/>
       <c r="AO170" s="2"/>
     </row>
-    <row r="171" ht="72.75" customHeight="1">
+    <row r="171" spans="1:41" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="34" t="s">
         <v>785</v>
       </c>
@@ -13438,9 +13769,9 @@
         <v>789</v>
       </c>
       <c r="G171" s="35">
-        <v>34200.0</v>
-      </c>
-      <c r="H171" s="2"/>
+        <v>34200</v>
+      </c>
+      <c r="H171" s="39"/>
       <c r="I171" s="2"/>
       <c r="J171" s="2"/>
       <c r="K171" s="2"/>
@@ -13475,7 +13806,7 @@
       <c r="AN171" s="2"/>
       <c r="AO171" s="2"/>
     </row>
-    <row r="172" ht="54.75" customHeight="1">
+    <row r="172" spans="1:41" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="34" t="s">
         <v>790</v>
       </c>
@@ -13483,7 +13814,7 @@
         <v>136</v>
       </c>
       <c r="C172" s="34">
-        <v>6.01594007E8</v>
+        <v>601594007</v>
       </c>
       <c r="D172" s="34" t="s">
         <v>49</v>
@@ -13495,9 +13826,11 @@
         <v>792</v>
       </c>
       <c r="G172" s="35">
-        <v>14950.0</v>
-      </c>
-      <c r="H172" s="2"/>
+        <v>14950</v>
+      </c>
+      <c r="H172" s="39">
+        <v>2.5</v>
+      </c>
       <c r="I172" s="2"/>
       <c r="J172" s="2"/>
       <c r="K172" s="2"/>
@@ -13532,7 +13865,7 @@
       <c r="AN172" s="2"/>
       <c r="AO172" s="2"/>
     </row>
-    <row r="173" ht="63.75" customHeight="1">
+    <row r="173" spans="1:41" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="34" t="s">
         <v>793</v>
       </c>
@@ -13552,9 +13885,11 @@
         <v>796</v>
       </c>
       <c r="G173" s="35">
-        <v>9150.0</v>
-      </c>
-      <c r="H173" s="2"/>
+        <v>9150</v>
+      </c>
+      <c r="H173" s="39">
+        <v>2.25</v>
+      </c>
       <c r="I173" s="2"/>
       <c r="J173" s="2"/>
       <c r="K173" s="2"/>
@@ -13589,7 +13924,7 @@
       <c r="AN173" s="2"/>
       <c r="AO173" s="2"/>
     </row>
-    <row r="174" ht="72.75" customHeight="1">
+    <row r="174" spans="1:41" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="34" t="s">
         <v>797</v>
       </c>
@@ -13609,9 +13944,9 @@
         <v>206</v>
       </c>
       <c r="G174" s="35">
-        <v>6300.0</v>
-      </c>
-      <c r="H174" s="2"/>
+        <v>6300</v>
+      </c>
+      <c r="H174" s="39"/>
       <c r="I174" s="2"/>
       <c r="J174" s="2"/>
       <c r="K174" s="2"/>
@@ -13646,7 +13981,7 @@
       <c r="AN174" s="2"/>
       <c r="AO174" s="2"/>
     </row>
-    <row r="175" ht="68.25" customHeight="1">
+    <row r="175" spans="1:41" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="34" t="s">
         <v>801</v>
       </c>
@@ -13666,9 +14001,9 @@
         <v>804</v>
       </c>
       <c r="G175" s="19">
-        <v>11875.0</v>
-      </c>
-      <c r="H175" s="2"/>
+        <v>11875</v>
+      </c>
+      <c r="H175" s="39"/>
       <c r="I175" s="2"/>
       <c r="J175" s="2"/>
       <c r="K175" s="2"/>
@@ -13703,7 +14038,7 @@
       <c r="AN175" s="2"/>
       <c r="AO175" s="2"/>
     </row>
-    <row r="176" ht="51.75" customHeight="1">
+    <row r="176" spans="1:41" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="34" t="s">
         <v>805</v>
       </c>
@@ -13723,9 +14058,11 @@
         <v>809</v>
       </c>
       <c r="G176" s="35">
-        <v>19400.0</v>
-      </c>
-      <c r="H176" s="2"/>
+        <v>19400</v>
+      </c>
+      <c r="H176" s="39">
+        <v>6</v>
+      </c>
       <c r="I176" s="2"/>
       <c r="J176" s="2"/>
       <c r="K176" s="2"/>
@@ -13760,7 +14097,7 @@
       <c r="AN176" s="2"/>
       <c r="AO176" s="2"/>
     </row>
-    <row r="177" ht="75.75" customHeight="1">
+    <row r="177" spans="1:41" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="34" t="s">
         <v>810</v>
       </c>
@@ -13780,9 +14117,9 @@
         <v>813</v>
       </c>
       <c r="G177" s="35">
-        <v>25700.0</v>
-      </c>
-      <c r="H177" s="2"/>
+        <v>25700</v>
+      </c>
+      <c r="H177" s="39"/>
       <c r="I177" s="2"/>
       <c r="J177" s="2"/>
       <c r="K177" s="2"/>
@@ -13817,7 +14154,7 @@
       <c r="AN177" s="2"/>
       <c r="AO177" s="2"/>
     </row>
-    <row r="178" ht="57.0" customHeight="1">
+    <row r="178" spans="1:41" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="34" t="s">
         <v>814</v>
       </c>
@@ -13837,9 +14174,11 @@
         <v>77</v>
       </c>
       <c r="G178" s="35">
-        <v>29275.0</v>
-      </c>
-      <c r="H178" s="2"/>
+        <v>29275</v>
+      </c>
+      <c r="H178" s="39">
+        <v>18.100000000000001</v>
+      </c>
       <c r="I178" s="2"/>
       <c r="J178" s="2"/>
       <c r="K178" s="2"/>
@@ -13874,7 +14213,7 @@
       <c r="AN178" s="2"/>
       <c r="AO178" s="2"/>
     </row>
-    <row r="179" ht="48.0" customHeight="1">
+    <row r="179" spans="1:41" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="34" t="s">
         <v>818</v>
       </c>
@@ -13894,9 +14233,11 @@
         <v>821</v>
       </c>
       <c r="G179" s="35">
-        <v>57925.0</v>
-      </c>
-      <c r="H179" s="2"/>
+        <v>57925</v>
+      </c>
+      <c r="H179" s="39">
+        <v>20</v>
+      </c>
       <c r="I179" s="2"/>
       <c r="J179" s="2"/>
       <c r="K179" s="2"/>
@@ -13931,7 +14272,7 @@
       <c r="AN179" s="2"/>
       <c r="AO179" s="2"/>
     </row>
-    <row r="180" ht="52.5" customHeight="1">
+    <row r="180" spans="1:41" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="34" t="s">
         <v>822</v>
       </c>
@@ -13951,9 +14292,11 @@
         <v>826</v>
       </c>
       <c r="G180" s="35">
-        <v>16050.0</v>
-      </c>
-      <c r="H180" s="2"/>
+        <v>16050</v>
+      </c>
+      <c r="H180" s="39">
+        <v>10</v>
+      </c>
       <c r="I180" s="2"/>
       <c r="J180" s="2"/>
       <c r="K180" s="2"/>
@@ -13988,7 +14331,7 @@
       <c r="AN180" s="2"/>
       <c r="AO180" s="2"/>
     </row>
-    <row r="181" ht="42.75" customHeight="1">
+    <row r="181" spans="1:41" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="34" t="s">
         <v>827</v>
       </c>
@@ -14008,9 +14351,11 @@
         <v>826</v>
       </c>
       <c r="G181" s="35">
-        <v>25200.0</v>
-      </c>
-      <c r="H181" s="2"/>
+        <v>25200</v>
+      </c>
+      <c r="H181" s="39">
+        <v>15</v>
+      </c>
       <c r="I181" s="2"/>
       <c r="J181" s="2"/>
       <c r="K181" s="2"/>
@@ -14045,7 +14390,7 @@
       <c r="AN181" s="2"/>
       <c r="AO181" s="2"/>
     </row>
-    <row r="182" ht="45.0" customHeight="1">
+    <row r="182" spans="1:41" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="34" t="s">
         <v>830</v>
       </c>
@@ -14065,9 +14410,9 @@
         <v>835</v>
       </c>
       <c r="G182" s="35">
-        <v>37975.0</v>
-      </c>
-      <c r="H182" s="2"/>
+        <v>37975</v>
+      </c>
+      <c r="H182" s="39"/>
       <c r="I182" s="2"/>
       <c r="J182" s="2"/>
       <c r="K182" s="2"/>
@@ -14102,7 +14447,7 @@
       <c r="AN182" s="2"/>
       <c r="AO182" s="2"/>
     </row>
-    <row r="183" ht="54.75" customHeight="1">
+    <row r="183" spans="1:41" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="34" t="s">
         <v>836</v>
       </c>
@@ -14122,9 +14467,11 @@
         <v>839</v>
       </c>
       <c r="G183" s="35">
-        <v>53100.0</v>
-      </c>
-      <c r="H183" s="2"/>
+        <v>53100</v>
+      </c>
+      <c r="H183" s="39">
+        <v>24.2</v>
+      </c>
       <c r="I183" s="2"/>
       <c r="J183" s="2"/>
       <c r="K183" s="2"/>
@@ -14159,7 +14506,7 @@
       <c r="AN183" s="2"/>
       <c r="AO183" s="2"/>
     </row>
-    <row r="184" ht="57.75" customHeight="1">
+    <row r="184" spans="1:41" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="34" t="s">
         <v>840</v>
       </c>
@@ -14179,9 +14526,11 @@
         <v>843</v>
       </c>
       <c r="G184" s="35">
-        <v>106050.0</v>
-      </c>
-      <c r="H184" s="2"/>
+        <v>106050</v>
+      </c>
+      <c r="H184" s="39">
+        <v>32.1</v>
+      </c>
       <c r="I184" s="2"/>
       <c r="J184" s="2"/>
       <c r="K184" s="2"/>
@@ -14216,7 +14565,7 @@
       <c r="AN184" s="2"/>
       <c r="AO184" s="2"/>
     </row>
-    <row r="185" ht="52.5" customHeight="1">
+    <row r="185" spans="1:41" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="34" t="s">
         <v>844</v>
       </c>
@@ -14236,9 +14585,11 @@
         <v>848</v>
       </c>
       <c r="G185" s="35">
-        <v>83725.0</v>
-      </c>
-      <c r="H185" s="2"/>
+        <v>83725</v>
+      </c>
+      <c r="H185" s="39">
+        <v>27</v>
+      </c>
       <c r="I185" s="2"/>
       <c r="J185" s="2"/>
       <c r="K185" s="2"/>
@@ -14273,7 +14624,7 @@
       <c r="AN185" s="2"/>
       <c r="AO185" s="2"/>
     </row>
-    <row r="186" ht="45.75" customHeight="1">
+    <row r="186" spans="1:41" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="34" t="s">
         <v>849</v>
       </c>
@@ -14293,9 +14644,9 @@
         <v>848</v>
       </c>
       <c r="G186" s="35">
-        <v>96300.0</v>
-      </c>
-      <c r="H186" s="2"/>
+        <v>96300</v>
+      </c>
+      <c r="H186" s="39"/>
       <c r="I186" s="2"/>
       <c r="J186" s="2"/>
       <c r="K186" s="2"/>
@@ -14330,7 +14681,7 @@
       <c r="AN186" s="2"/>
       <c r="AO186" s="2"/>
     </row>
-    <row r="187" ht="45.0" customHeight="1">
+    <row r="187" spans="1:41" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="34" t="s">
         <v>852</v>
       </c>
@@ -14348,9 +14699,9 @@
         <v>855</v>
       </c>
       <c r="G187" s="35">
-        <v>21175.0</v>
-      </c>
-      <c r="H187" s="2"/>
+        <v>21175</v>
+      </c>
+      <c r="H187" s="39"/>
       <c r="I187" s="2"/>
       <c r="J187" s="2"/>
       <c r="K187" s="2"/>
@@ -14385,7 +14736,7 @@
       <c r="AN187" s="2"/>
       <c r="AO187" s="2"/>
     </row>
-    <row r="188" ht="47.25" customHeight="1">
+    <row r="188" spans="1:41" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="34" t="s">
         <v>856</v>
       </c>
@@ -14403,9 +14754,9 @@
         <v>77</v>
       </c>
       <c r="G188" s="35">
-        <v>875.0</v>
-      </c>
-      <c r="H188" s="2"/>
+        <v>875</v>
+      </c>
+      <c r="H188" s="39"/>
       <c r="I188" s="2"/>
       <c r="J188" s="2"/>
       <c r="K188" s="2"/>
@@ -14440,7 +14791,7 @@
       <c r="AN188" s="2"/>
       <c r="AO188" s="2"/>
     </row>
-    <row r="189" ht="50.25" customHeight="1">
+    <row r="189" spans="1:41" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="34" t="s">
         <v>860</v>
       </c>
@@ -14458,9 +14809,9 @@
         <v>77</v>
       </c>
       <c r="G189" s="35">
-        <v>750.0</v>
-      </c>
-      <c r="H189" s="2"/>
+        <v>750</v>
+      </c>
+      <c r="H189" s="39"/>
       <c r="I189" s="2"/>
       <c r="J189" s="2"/>
       <c r="K189" s="2"/>
@@ -14495,7 +14846,7 @@
       <c r="AN189" s="2"/>
       <c r="AO189" s="2"/>
     </row>
-    <row r="190" ht="41.25" customHeight="1">
+    <row r="190" spans="1:41" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="34" t="s">
         <v>863</v>
       </c>
@@ -14513,9 +14864,9 @@
         <v>77</v>
       </c>
       <c r="G190" s="35">
-        <v>8650.0</v>
-      </c>
-      <c r="H190" s="2"/>
+        <v>8650</v>
+      </c>
+      <c r="H190" s="39"/>
       <c r="I190" s="2"/>
       <c r="J190" s="2"/>
       <c r="K190" s="2"/>
@@ -14550,7 +14901,7 @@
       <c r="AN190" s="2"/>
       <c r="AO190" s="2"/>
     </row>
-    <row r="191" ht="42.0" customHeight="1">
+    <row r="191" spans="1:41" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="34" t="s">
         <v>866</v>
       </c>
@@ -14568,9 +14919,9 @@
         <v>77</v>
       </c>
       <c r="G191" s="35">
-        <v>4825.0</v>
-      </c>
-      <c r="H191" s="2"/>
+        <v>4825</v>
+      </c>
+      <c r="H191" s="39"/>
       <c r="I191" s="2"/>
       <c r="J191" s="2"/>
       <c r="K191" s="2"/>
@@ -14605,7 +14956,7 @@
       <c r="AN191" s="2"/>
       <c r="AO191" s="2"/>
     </row>
-    <row r="192" ht="42.75" customHeight="1">
+    <row r="192" spans="1:41" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="34" t="s">
         <v>869</v>
       </c>
@@ -14623,9 +14974,9 @@
         <v>77</v>
       </c>
       <c r="G192" s="35">
-        <v>3975.0</v>
-      </c>
-      <c r="H192" s="2"/>
+        <v>3975</v>
+      </c>
+      <c r="H192" s="39"/>
       <c r="I192" s="2"/>
       <c r="J192" s="2"/>
       <c r="K192" s="2"/>
@@ -14660,7 +15011,7 @@
       <c r="AN192" s="2"/>
       <c r="AO192" s="2"/>
     </row>
-    <row r="193" ht="39.0" customHeight="1">
+    <row r="193" spans="1:41" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="34" t="s">
         <v>872</v>
       </c>
@@ -14678,9 +15029,9 @@
         <v>875</v>
       </c>
       <c r="G193" s="35">
-        <v>10250.0</v>
-      </c>
-      <c r="H193" s="2"/>
+        <v>10250</v>
+      </c>
+      <c r="H193" s="39"/>
       <c r="I193" s="2"/>
       <c r="J193" s="2"/>
       <c r="K193" s="2"/>
@@ -14715,7 +15066,7 @@
       <c r="AN193" s="2"/>
       <c r="AO193" s="2"/>
     </row>
-    <row r="194" ht="44.25" customHeight="1">
+    <row r="194" spans="1:41" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="34" t="s">
         <v>876</v>
       </c>
@@ -14733,9 +15084,9 @@
         <v>77</v>
       </c>
       <c r="G194" s="35">
-        <v>13600.0</v>
-      </c>
-      <c r="H194" s="2"/>
+        <v>13600</v>
+      </c>
+      <c r="H194" s="39"/>
       <c r="I194" s="2"/>
       <c r="J194" s="2"/>
       <c r="K194" s="2"/>
@@ -14770,7 +15121,7 @@
       <c r="AN194" s="2"/>
       <c r="AO194" s="2"/>
     </row>
-    <row r="195" ht="40.5" customHeight="1">
+    <row r="195" spans="1:41" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="34" t="s">
         <v>879</v>
       </c>
@@ -14788,9 +15139,9 @@
         <v>77</v>
       </c>
       <c r="G195" s="35">
-        <v>12475.0</v>
-      </c>
-      <c r="H195" s="2"/>
+        <v>12475</v>
+      </c>
+      <c r="H195" s="39"/>
       <c r="I195" s="2"/>
       <c r="J195" s="2"/>
       <c r="K195" s="2"/>
@@ -14825,7 +15176,7 @@
       <c r="AN195" s="2"/>
       <c r="AO195" s="2"/>
     </row>
-    <row r="196" ht="48.75" customHeight="1">
+    <row r="196" spans="1:41" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="34" t="s">
         <v>882</v>
       </c>
@@ -14843,9 +15194,9 @@
         <v>77</v>
       </c>
       <c r="G196" s="35">
-        <v>13225.0</v>
-      </c>
-      <c r="H196" s="2"/>
+        <v>13225</v>
+      </c>
+      <c r="H196" s="39"/>
       <c r="I196" s="2"/>
       <c r="J196" s="2"/>
       <c r="K196" s="2"/>
@@ -14882,37 +15233,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K3:AJ3">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>IF(ISBLANK(K1),"",1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>IF(ISBLANK(K1),"",1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>IF(ISBLANK(J1),"",1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>IF(ISBLANK(I1),"",1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H6 I3:AJ3 A4:C35 D4:D196 E4:G35 I5:K5 A37:C196 E37:E196 F37:F114 G37:G196">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"Mandatory"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H6 I3:AJ3 A4:C35 D4:D196 E4:G35 I5:K5 A37:C196 E37:E196 F37:F114 G37:G196">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"Optional"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H6 I3:AJ3 A4:C35 D4:D196 E4:G35 I5:K5 A37:C196 E37:E196 F37:F114 G37:G196">
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>"Conditionally mandatory "</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14922,7 +15273,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:AJ5 A38:G38">
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
       <formula>"Uneditable
 Please enter the quantity of the product in the corresponding warehouse. Warehouses cannot be deleted or modified. Please copy warehouse info from [warehouse] sheet."</formula>
     </cfRule>
@@ -14932,21 +15283,20 @@
       <formula>IF(ISBLANK(A1),"",1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AJ1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:36" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A1" s="37" t="s">
         <v>885</v>
       </c>
@@ -15002,1034 +15352,1035 @@
         <v>888</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:36" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A2" s="37" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:36" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A3" s="37" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:36" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A4" s="37" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:36" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A5" s="37" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:36" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A6" s="37" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:36" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A7" s="37" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:36" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A8" s="37" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A1" s="37" t="s">
         <v>885</v>
       </c>
@@ -16043,7 +16394,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A2" s="37" t="s">
         <v>885</v>
       </c>
@@ -16057,7 +16408,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A3" s="37" t="s">
         <v>885</v>
       </c>
@@ -16071,7 +16422,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A4" s="37" t="s">
         <v>885</v>
       </c>
@@ -16085,7 +16436,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A5" s="37" t="s">
         <v>885</v>
       </c>
@@ -16099,7 +16450,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C6" s="37" t="s">
         <v>885</v>
       </c>
@@ -16107,7 +16458,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C7" s="37" t="s">
         <v>885</v>
       </c>
@@ -16115,7 +16466,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C8" s="37" t="s">
         <v>885</v>
       </c>
@@ -16123,7 +16474,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C9" s="37" t="s">
         <v>885</v>
       </c>
@@ -16131,987 +16482,987 @@
         <v>896</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>